--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0AB38-43D8-45D2-82DD-2CAD3E99EFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCB8F35-D9B9-4C52-9920-4F6C3A24B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
       <selection activeCell="B242" sqref="B242"/>
@@ -6769,22 +6769,74 @@
         <v>3009.4</v>
       </c>
       <c r="C243" s="3">
-        <v>9495000</v>
+        <v>9495236</v>
       </c>
       <c r="D243" s="3">
-        <v>0</v>
+        <v>9047861</v>
       </c>
       <c r="E243" s="3">
-        <v>6685000</v>
+        <v>6685176</v>
       </c>
       <c r="F243" s="3">
-        <v>2804000</v>
+        <v>2804217</v>
       </c>
       <c r="G243" s="3">
-        <v>6000</v>
+        <v>5843</v>
       </c>
       <c r="H243" s="3">
         <v>31.55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B244" s="3">
+        <v>243.9</v>
+      </c>
+      <c r="C244" s="3">
+        <v>729317</v>
+      </c>
+      <c r="D244" s="3">
+        <v>698901</v>
+      </c>
+      <c r="E244" s="3">
+        <v>444647</v>
+      </c>
+      <c r="F244" s="3">
+        <v>284292</v>
+      </c>
+      <c r="G244" s="3">
+        <v>378</v>
+      </c>
+      <c r="H244" s="3">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B245" s="3">
+        <v>402.6</v>
+      </c>
+      <c r="C245" s="3">
+        <v>1207000</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0</v>
+      </c>
+      <c r="E245" s="3">
+        <v>740000</v>
+      </c>
+      <c r="F245" s="3">
+        <v>467000</v>
+      </c>
+      <c r="G245" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H245" s="3">
+        <v>29.98</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCB8F35-D9B9-4C52-9920-4F6C3A24B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881792E5-88F6-4D89-A0EC-3D9F2C39E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6821,22 +6821,48 @@
         <v>402.6</v>
       </c>
       <c r="C245" s="3">
-        <v>1207000</v>
+        <v>1207433</v>
       </c>
       <c r="D245" s="3">
-        <v>0</v>
+        <v>1151580</v>
       </c>
       <c r="E245" s="3">
-        <v>740000</v>
+        <v>739840</v>
       </c>
       <c r="F245" s="3">
-        <v>467000</v>
+        <v>467027</v>
       </c>
       <c r="G245" s="3">
+        <v>566</v>
+      </c>
+      <c r="H245" s="3">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B246" s="3">
+        <v>672</v>
+      </c>
+      <c r="C246" s="3">
+        <v>2090000</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0</v>
+      </c>
+      <c r="E246" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="F246" s="3">
+        <v>784000</v>
+      </c>
+      <c r="G246" s="3">
         <v>1000</v>
       </c>
-      <c r="H245" s="3">
-        <v>29.98</v>
+      <c r="H246" s="3">
+        <v>31.1</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881792E5-88F6-4D89-A0EC-3D9F2C39E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D43497-83A9-4722-9D06-4A39C42B6A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -478,9 +478,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
       <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
@@ -6847,22 +6847,48 @@
         <v>672</v>
       </c>
       <c r="C246" s="3">
-        <v>2090000</v>
+        <v>2090308</v>
       </c>
       <c r="D246" s="3">
-        <v>0</v>
+        <v>1983296</v>
       </c>
       <c r="E246" s="3">
-        <v>1305000</v>
+        <v>1305383</v>
       </c>
       <c r="F246" s="3">
-        <v>784000</v>
+        <v>784136</v>
       </c>
       <c r="G246" s="3">
+        <v>789</v>
+      </c>
+      <c r="H246" s="3">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B247" s="3">
+        <v>907.9</v>
+      </c>
+      <c r="C247" s="3">
+        <v>2940000</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1824000</v>
+      </c>
+      <c r="F247" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="G247" s="3">
         <v>1000</v>
       </c>
-      <c r="H246" s="3">
-        <v>31.1</v>
+      <c r="H247" s="3">
+        <v>32.380000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D43497-83A9-4722-9D06-4A39C42B6A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20D249-FE54-41AF-80E9-E8E4D7F77631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -480,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20D249-FE54-41AF-80E9-E8E4D7F77631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01FF55-D82B-473C-B5D0-D64E1942C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,9 +478,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
       <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
@@ -6873,22 +6873,74 @@
         <v>907.9</v>
       </c>
       <c r="C247" s="3">
-        <v>2940000</v>
+        <v>2940423</v>
       </c>
       <c r="D247" s="3">
-        <v>0</v>
+        <v>2789572</v>
       </c>
       <c r="E247" s="3">
-        <v>1824000</v>
+        <v>1824211</v>
       </c>
       <c r="F247" s="3">
-        <v>1115000</v>
+        <v>1115138</v>
       </c>
       <c r="G247" s="3">
-        <v>1000</v>
+        <v>1074</v>
       </c>
       <c r="H247" s="3">
-        <v>32.380000000000003</v>
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1149.5999999999999</v>
+      </c>
+      <c r="C248" s="3">
+        <v>3895318</v>
+      </c>
+      <c r="D248" s="3">
+        <v>3700437</v>
+      </c>
+      <c r="E248" s="3">
+        <v>2407428</v>
+      </c>
+      <c r="F248" s="3">
+        <v>1486371</v>
+      </c>
+      <c r="G248" s="3">
+        <v>1519</v>
+      </c>
+      <c r="H248" s="3">
+        <v>33.880000000000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1404.7</v>
+      </c>
+      <c r="C249" s="3">
+        <v>4944000</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0</v>
+      </c>
+      <c r="E249" s="3">
+        <v>3019000</v>
+      </c>
+      <c r="F249" s="3">
+        <v>1922000</v>
+      </c>
+      <c r="G249" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01FF55-D82B-473C-B5D0-D64E1942C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE412476-F7A9-4EEC-B262-465785EB78D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -478,15 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6925,21 +6928,47 @@
         <v>1404.7</v>
       </c>
       <c r="C249" s="3">
-        <v>4944000</v>
+        <v>4944073</v>
       </c>
       <c r="D249" s="3">
-        <v>0</v>
+        <v>4702401</v>
       </c>
       <c r="E249" s="3">
-        <v>3019000</v>
+        <v>3019217</v>
       </c>
       <c r="F249" s="3">
-        <v>1922000</v>
+        <v>1922273</v>
       </c>
       <c r="G249" s="3">
+        <v>2583</v>
+      </c>
+      <c r="H249" s="3">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1631</v>
+      </c>
+      <c r="C250" s="3">
+        <v>5934000</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0</v>
+      </c>
+      <c r="E250" s="3">
+        <v>3570000</v>
+      </c>
+      <c r="F250" s="3">
+        <v>2361000</v>
+      </c>
+      <c r="G250" s="3">
         <v>3000</v>
       </c>
-      <c r="H249" s="3">
+      <c r="H250" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE412476-F7A9-4EEC-B262-465785EB78D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0505F251-5831-4229-9B53-397C214B413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -6954,22 +6954,48 @@
         <v>1631</v>
       </c>
       <c r="C250" s="3">
-        <v>5934000</v>
+        <v>5934471</v>
       </c>
       <c r="D250" s="3">
-        <v>0</v>
+        <v>5655323</v>
       </c>
       <c r="E250" s="3">
-        <v>3570000</v>
+        <v>3570342</v>
       </c>
       <c r="F250" s="3">
-        <v>2361000</v>
+        <v>2360767</v>
       </c>
       <c r="G250" s="3">
-        <v>3000</v>
+        <v>3362</v>
       </c>
       <c r="H250" s="3">
-        <v>0</v>
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1876.6</v>
+      </c>
+      <c r="C251" s="3">
+        <v>7037000</v>
+      </c>
+      <c r="D251" s="3">
+        <v>0</v>
+      </c>
+      <c r="E251" s="3">
+        <v>4216000</v>
+      </c>
+      <c r="F251" s="3">
+        <v>2817000</v>
+      </c>
+      <c r="G251" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H251" s="3">
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0505F251-5831-4229-9B53-397C214B413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD2D2F-6E38-42F4-A03B-B5F1D6DDF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -6980,19 +6980,19 @@
         <v>1876.6</v>
       </c>
       <c r="C251" s="3">
-        <v>7037000</v>
+        <v>7036876</v>
       </c>
       <c r="D251" s="3">
-        <v>0</v>
+        <v>6712433</v>
       </c>
       <c r="E251" s="3">
-        <v>4216000</v>
+        <v>4216280</v>
       </c>
       <c r="F251" s="3">
-        <v>2817000</v>
+        <v>2816673</v>
       </c>
       <c r="G251" s="3">
-        <v>4000</v>
+        <v>3923</v>
       </c>
       <c r="H251" s="3">
         <v>37.5</v>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD2D2F-6E38-42F4-A03B-B5F1D6DDF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3B563A-5168-49B4-A9CB-AF2C9F04F031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -6998,6 +6998,32 @@
         <v>37.5</v>
       </c>
     </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B252" s="3">
+        <v>2157.1</v>
+      </c>
+      <c r="C252" s="3">
+        <v>8320000</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0</v>
+      </c>
+      <c r="E252" s="3">
+        <v>4988000</v>
+      </c>
+      <c r="F252" s="3">
+        <v>3328000</v>
+      </c>
+      <c r="G252" s="3">
+        <v>4133</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3B563A-5168-49B4-A9CB-AF2C9F04F031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF9374-0F0D-4B00-9566-724C1B164A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7021,7 +7021,7 @@
         <v>4133</v>
       </c>
       <c r="H252" s="3">
-        <v>0</v>
+        <v>38.57</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF9374-0F0D-4B00-9566-724C1B164A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F2446-BD58-446F-8C42-4606CA11F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -493,9 +493,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131F2446-BD58-446F-8C42-4606CA11F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE3983-9592-4FE1-AD9A-459C9814B525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -493,9 +493,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF9374-0F0D-4B00-9566-724C1B164A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBFA36C-3E6E-4A1E-8C60-AF0A5264E789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBFA36C-3E6E-4A1E-8C60-AF0A5264E789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E49ED2-0464-4D4C-B56C-7BEE0CF79A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7006,16 +7006,16 @@
         <v>2157.1</v>
       </c>
       <c r="C252" s="3">
-        <v>8320000</v>
+        <v>8320135</v>
       </c>
       <c r="D252" s="3">
-        <v>0</v>
+        <v>7943599</v>
       </c>
       <c r="E252" s="3">
-        <v>4988000</v>
+        <v>4988166</v>
       </c>
       <c r="F252" s="3">
-        <v>3328000</v>
+        <v>3327836</v>
       </c>
       <c r="G252" s="3">
         <v>4133</v>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E49ED2-0464-4D4C-B56C-7BEE0CF79A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2594C29-FBBF-4551-B0C4-33C69E76C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -493,9 +493,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2594C29-FBBF-4551-B0C4-33C69E76C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9FA49-D8DA-4223-9D8C-0C5F9214CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -493,9 +493,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7022,6 +7022,32 @@
       </c>
       <c r="H252" s="3">
         <v>38.57</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B253" s="3">
+        <v>2462.4</v>
+      </c>
+      <c r="C253" s="3">
+        <v>9750000</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0</v>
+      </c>
+      <c r="E253" s="3">
+        <v>5830000</v>
+      </c>
+      <c r="F253" s="3">
+        <v>3915000</v>
+      </c>
+      <c r="G253" s="3">
+        <v>4695</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9FA49-D8DA-4223-9D8C-0C5F9214CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BFDDE7-B48E-448C-A894-3C599F46532E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2115" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -7032,22 +7032,48 @@
         <v>2462.4</v>
       </c>
       <c r="C253" s="3">
-        <v>9750000</v>
+        <v>9750246</v>
       </c>
       <c r="D253" s="3">
-        <v>0</v>
+        <v>9314558</v>
       </c>
       <c r="E253" s="3">
-        <v>5830000</v>
+        <v>5830407</v>
       </c>
       <c r="F253" s="3">
-        <v>3915000</v>
+        <v>3915144</v>
       </c>
       <c r="G253" s="3">
         <v>4695</v>
       </c>
       <c r="H253" s="3">
-        <v>0</v>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B254" s="3">
+        <v>2794</v>
+      </c>
+      <c r="C254" s="3">
+        <v>11262000</v>
+      </c>
+      <c r="D254" s="3">
+        <v>0</v>
+      </c>
+      <c r="E254" s="3">
+        <v>6738000</v>
+      </c>
+      <c r="F254" s="3">
+        <v>4519000</v>
+      </c>
+      <c r="G254" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H254" s="3">
+        <v>40.31</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BFDDE7-B48E-448C-A894-3C599F46532E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2010004-4365-40DD-8582-77335306D7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <rFont val="宋体"/>
           </rPr>
-          <t>UEsDBBQACAgIAAmDKVgAAAAAAAAAAAAAAAABAAAAML2WXWscNxSGfd1fsQgCCaxA0nxq7vxJQp3E1G6ghFA0ozNr4dmZrUaTZjGG0EDdBlqHYkJLcpHelN60aaAlqYn7a7Jr519UM+uPtOnaG2pnYC90dCS9el7prObnZqY+mJqaWkdwp1doM1vkqeqgaB1JSEWVmUWRdyrRARQhyFEbSVX2MtG/Wsg6JLtXcqkSYVRRd6pyukxQZHQFdeOykjCTiXztMFSVsFjlQqMoFVkJG+2DVVeUyeB6r5nFLi2yrInMZ9CF3JQH6W2UFFVudP+oLaFMtDoYN1oi1fBZBXlynGRF5EalCvRRqBTdXgbHTcggMSCbRT+E/qIqDYpuIg2lKTRcE11At2xaUenkeJQRcTbqO4xUuXpDbNWTwsCc/R1vtwtGK0vo5jr61PaKOdVphrA2iqGj8lE2YoQ4lDnUIk1WrQHwESSFlnbcrRpCg365zvFcZnMgH8lAs6sqF1FrWWRQRq0bsKqSDKLWJytzTdbHVp/NosR+rZHYxgGRS5BHuuGO0SIxK6LzJlMUuW3U0UXVazoOctfAckbECYjPEoGpByF2mRfjGGKGIQxFGkJIOffsSvlI5KsXvwwe7Uavt+++3tyKhs9293d/ivZ+f7r/64+Duy9tXk9o69gVq4j6oes47UMj/gG6mWlz/68v0Ub7NJqUnErTp8wjgTOe5jX4vDWfg+70D8GWb5FtdJ0J0thnMvYCF0vu1Ug5wVw6IQ44DRn1AykpH4v04W/793aHOw9OZOt4dst8LNsJwXqEngrWoQ4jE4FdEmUJdh7dmhX6PPGmTPipF3jYI15i8RKBQy459mXgyNQnhPPwVLyv/vx+b/vn8YTJ/4VrP4dMcGrdieBOV6boFrFq4jPCGND91nxd+WxJeh9nOkiJ4yU8wIIKF7sB93AswxSzMPBDTyacgj/xmd55urf9x+D+CfjP5oBP6oH37h4sZVUHq7x1uR9rJd+HAwn3SUxSB1M3INgNbWnhVDKcxsIRARMCGEzqwHDru9qBl1vD588HD76yVgzuPzpvN0LCT3XD8QP/nW9E6+JCBVlrFrLsyIhL5+gEJczl0hVYBrx2QgDmri1A1hOHeR5jPGYTOnFxb/Pe8OEP1ozhsyeXzqsWOcQ5udAvMI8GLuH/Qf6q0GtgWsurVs746/Av1hfOBrTrCgdk6GPGwMeuL1Ich9THPHFoShLPd1L6FujBiy8Gj3cG3zwZPv5679vNCf9RxzO+gDYsKKO6sKDtQstgjMqbV3ayCsnaDZGp4z1mojTX49oEd9RY6fdqbVkdBX27eWzXL7ciLhd00T30h1J3FFw2Qptp81Z8pTi8RLam1cpBq0IezN4zC1WWLTUhtLHxN1BLBwiD6Qk+/AMAABgMAAA=</t>
+          <t>UEsDBBQACAgIABJ+JloAAAAAAAAAAAAAAAABAAAAML2XW2scNxTH/dxPsQgCCaxA0lw1b76SkJupnUAJpmhGZ3aFZ2e2Gk2bxRhCAzUttC7FhJbmIX0peWnTQEtSE/fTxGvnW1Qze2nBdbwNduZld46Ozjn6/aUzM8tLC3MfzM3NbSG43y+0WSzyVHVQtIUkpKLKzA2RdyrRARQhyFEbSVX2MzG4WcjaJHvXcqkSYVRRD6o8La4D9O/0pTB2nFhTOV8mKDK6gvrmqpKwkIl8c2KqSrhR5UKjKBVZCdvtcSHrymRwu98EttWILGssyxn0IDfl2L2NkqLKjR5MwkkoE63G00amVMMnFeTJ1MeWkBuVKtATSyl6/QymMUvIIDEgm4zXYXBDlQZF96a52khDaQoNt0QP0CiD/alyZVBdkayNZVHppP5TNTCWaiAbU/M4sRFxNooyyV0HKadw/pnaWCydHhitLNB7W+hjOyiWVKeZwNooho7KR86IEeJQ5tC6nq6VED6EpNDSztsYVxihtdrHc5n1gXxUBFrsqlxErTWRQRm17kJXJRlErY/WlxqvO/USI0SJvVqjUhvBRC5BTtcA940WiVkXnX9rgCK3jTq6qPrNwNh3E6wuiDgB8VkiMPUgxC7zYhxDzDCEoUhDCCnnns2Uj4p8/fKXwx8Pojd7D97s7EbD5wfHBz9HR78/O/71p8MHr6xfX2gr8TVbEfVD13Gmgk3TanOCehN45/ivL9B2+yy4lJwJ16fMI4FzOtxb8FlrOQfdGUw4lydAj7fUORCOfSZjL3Cx5F5NmBPMpRPigNOQUT+QkvJTCT/67fjhwXD/27eidjy7ZD4r6hk5e4SeydmhDiMzcV4VZQk2jm4tCn2RtFMm/NQLPOwRL7G0icAhlxz7MnBk6hPCeXgm7dd/fn+09/R04OScWdvLITPsaXcm1vOVKXpFrKy9dXlBGAN60FquG6vtX1cukH2QEsdLeIAFFS52A+7hWIYpZmHgh55MOAV/xp1++Wj/2dHeH4dfPb3yPjf9rEJ4/1+I1azqYJW3rg5ireRFypBwn8QkdTB1A4Ld0HYdTiXDaSwcETAhgMGsDWe4+10tw6vd4YsXVoz3qUVI+JlaOH7gv8OhWKkgay1Clk37/0XqQQlzuXQFlgGv9RCAuWtbklXGYZ7HGI/ZzMdi5+Hw0Q9WkuHzJ6edjPPuTg5x3v4kWGEeDVzC/0OIm0JvgmmtdW11p+lxAv2l8+HuusIBGfqYMfCx64sUxyH1MU8cmpLE852UnuB++PLzw8f7h18/GT7+8uibnRmfwDMjv4S2N2pfW3vZXR/0R6/qRvVgRVv3NTBG5c1XQNKFZPOuyJScrDcTpbkd1xK5o5vRfJTVVtCfNt8C9WthEZcruuhN1KPUHRnXjNBm3pywrxeTE2fbX70u0KqQ4+h9s1Jl2WpjQtvbfwNQSwcI+2QlYiQEAAC3DAAA</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -71,16 +77,79 @@
     <t>China: Sales: New Energy Passenger Cars: YTD</t>
   </si>
   <si>
-    <t>China: Sales: New Energy Automobiles: Battery Electric Vehicles: YTD</t>
+    <t>China: Sales: New Energy Automobiles (Battery Electric): YTD</t>
   </si>
   <si>
-    <t>China: Sales: New Energy Automobiles: Plug-in Hybrid Vehicles: YTD</t>
+    <t>China: Sales: New Energy Automobiles (Plug-in Hybrid): YTD</t>
   </si>
   <si>
     <t>China: Sales: New Energy Automobiles (Fuel Cell Vehicles): YTD</t>
   </si>
   <si>
     <t>China: Market Share: New Energy Automobiles: YTD</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>10000 units</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>S0031542</t>
+  </si>
+  <si>
+    <t>S6125073</t>
+  </si>
+  <si>
+    <t>S6131320</t>
+  </si>
+  <si>
+    <t>S6125074</t>
+  </si>
+  <si>
+    <t>S6125075</t>
+  </si>
+  <si>
+    <t>S6136764</t>
+  </si>
+  <si>
+    <t>F2517409</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>China Association of Automobile Manufacturers</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2024-12-15</t>
   </si>
 </sst>
 </file>
@@ -95,7 +164,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -129,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -139,6 +208,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -182,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,39 +264,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -276,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -328,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,13 +459,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -402,6 +467,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -466,11 +538,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,21 +570,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -506,186 +596,186 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>37986</v>
-      </c>
-      <c r="B3" s="3">
-        <v>439.08</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>38017</v>
-      </c>
-      <c r="B4" s="3">
-        <v>30.41</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>38046</v>
-      </c>
-      <c r="B5" s="3">
-        <v>73.430000000000007</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>38077</v>
-      </c>
-      <c r="B6" s="3">
-        <v>127.77</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>38107</v>
-      </c>
-      <c r="B7" s="3">
-        <v>177.57</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>38138</v>
-      </c>
-      <c r="B8" s="3">
-        <v>217.18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>38168</v>
+        <v>37986</v>
       </c>
       <c r="B9" s="3">
-        <v>255.36</v>
+        <v>439.08</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -708,10 +798,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>38199</v>
+        <v>38017</v>
       </c>
       <c r="B10" s="3">
-        <v>289.79000000000002</v>
+        <v>30.41</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -734,10 +824,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>38230</v>
+        <v>38046</v>
       </c>
       <c r="B11" s="3">
-        <v>328</v>
+        <v>73.430000000000007</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -760,10 +850,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>38260</v>
+        <v>38077</v>
       </c>
       <c r="B12" s="3">
-        <v>372.93</v>
+        <v>127.77</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -786,10 +876,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>38291</v>
+        <v>38107</v>
       </c>
       <c r="B13" s="3">
-        <v>413.4</v>
+        <v>177.57</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -812,10 +902,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>38321</v>
+        <v>38138</v>
       </c>
       <c r="B14" s="3">
-        <v>458.33</v>
+        <v>217.18</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -838,10 +928,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>38352</v>
+        <v>38168</v>
       </c>
       <c r="B15" s="3">
-        <v>507.11</v>
+        <v>255.36</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -864,10 +954,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>38383</v>
+        <v>38199</v>
       </c>
       <c r="B16" s="3">
-        <v>36.61</v>
+        <v>289.79000000000002</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -890,10 +980,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>38411</v>
+        <v>38230</v>
       </c>
       <c r="B17" s="3">
-        <v>68.45</v>
+        <v>328</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -916,10 +1006,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>38442</v>
+        <v>38260</v>
       </c>
       <c r="B18" s="3">
-        <v>126.66</v>
+        <v>372.93</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -942,10 +1032,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>38472</v>
+        <v>38291</v>
       </c>
       <c r="B19" s="3">
-        <v>180.35</v>
+        <v>413.4</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -968,10 +1058,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>38503</v>
+        <v>38321</v>
       </c>
       <c r="B20" s="3">
-        <v>227.1</v>
+        <v>458.33</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -994,10 +1084,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>38533</v>
+        <v>38352</v>
       </c>
       <c r="B21" s="3">
-        <v>279.24</v>
+        <v>507.11</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1020,10 +1110,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>38564</v>
+        <v>38383</v>
       </c>
       <c r="B22" s="3">
-        <v>322.39999999999998</v>
+        <v>36.61</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1046,10 +1136,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>38595</v>
+        <v>38411</v>
       </c>
       <c r="B23" s="3">
-        <v>364.01</v>
+        <v>68.45</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1072,10 +1162,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>38625</v>
+        <v>38442</v>
       </c>
       <c r="B24" s="3">
-        <v>413.62</v>
+        <v>126.66</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1098,10 +1188,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>38656</v>
+        <v>38472</v>
       </c>
       <c r="B25" s="3">
-        <v>458.83</v>
+        <v>180.35</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1124,10 +1214,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>38686</v>
+        <v>38503</v>
       </c>
       <c r="B26" s="3">
-        <v>513.76</v>
+        <v>227.1</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1150,10 +1240,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>38717</v>
+        <v>38533</v>
       </c>
       <c r="B27" s="3">
-        <v>575.82000000000005</v>
+        <v>279.24</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1176,10 +1266,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>38748</v>
+        <v>38564</v>
       </c>
       <c r="B28" s="3">
-        <v>53.01</v>
+        <v>322.39999999999998</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -1202,10 +1292,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>38776</v>
+        <v>38595</v>
       </c>
       <c r="B29" s="3">
-        <v>101.13</v>
+        <v>364.01</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1228,10 +1318,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>38807</v>
+        <v>38625</v>
       </c>
       <c r="B30" s="3">
-        <v>173.32</v>
+        <v>413.62</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1254,10 +1344,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>38837</v>
+        <v>38656</v>
       </c>
       <c r="B31" s="3">
-        <v>240.67</v>
+        <v>458.83</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1280,10 +1370,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>38868</v>
+        <v>38686</v>
       </c>
       <c r="B32" s="3">
-        <v>297.43</v>
+        <v>513.76</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -1306,10 +1396,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>38898</v>
+        <v>38717</v>
       </c>
       <c r="B33" s="3">
-        <v>353.52</v>
+        <v>575.82000000000005</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1332,10 +1422,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>38929</v>
+        <v>38748</v>
       </c>
       <c r="B34" s="3">
-        <v>400.61</v>
+        <v>53.01</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -1358,10 +1448,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>38960</v>
+        <v>38776</v>
       </c>
       <c r="B35" s="3">
-        <v>453.42</v>
+        <v>101.13</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -1384,10 +1474,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>38990</v>
+        <v>38807</v>
       </c>
       <c r="B36" s="3">
-        <v>517</v>
+        <v>173.32</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -1410,10 +1500,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>39021</v>
+        <v>38837</v>
       </c>
       <c r="B37" s="3">
-        <v>576.58000000000004</v>
+        <v>240.67</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1436,10 +1526,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>39051</v>
+        <v>38868</v>
       </c>
       <c r="B38" s="3">
-        <v>645.48</v>
+        <v>297.43</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -1462,10 +1552,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>39082</v>
+        <v>38898</v>
       </c>
       <c r="B39" s="3">
-        <v>721.6</v>
+        <v>353.52</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -1488,10 +1578,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>39113</v>
+        <v>38929</v>
       </c>
       <c r="B40" s="3">
-        <v>71.709999999999994</v>
+        <v>400.61</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -1514,10 +1604,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>39141</v>
+        <v>38960</v>
       </c>
       <c r="B41" s="3">
-        <v>127</v>
+        <v>453.42</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -1540,10 +1630,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>39172</v>
+        <v>38990</v>
       </c>
       <c r="B42" s="3">
-        <v>212.37</v>
+        <v>517</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -1566,10 +1656,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>39202</v>
+        <v>39021</v>
       </c>
       <c r="B43" s="3">
-        <v>293.36</v>
+        <v>576.58000000000004</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -1592,10 +1682,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>39233</v>
+        <v>39051</v>
       </c>
       <c r="B44" s="3">
-        <v>364.62</v>
+        <v>645.48</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -1618,10 +1708,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>39263</v>
+        <v>39082</v>
       </c>
       <c r="B45" s="3">
-        <v>437.38</v>
+        <v>721.6</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -1644,10 +1734,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>39294</v>
+        <v>39113</v>
       </c>
       <c r="B46" s="3">
-        <v>501.36</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -1670,10 +1760,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>39325</v>
+        <v>39141</v>
       </c>
       <c r="B47" s="3">
-        <v>568.53</v>
+        <v>127</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -1696,10 +1786,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>39355</v>
+        <v>39172</v>
       </c>
       <c r="B48" s="3">
-        <v>645.79999999999995</v>
+        <v>212.37</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -1722,10 +1812,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>39386</v>
+        <v>39202</v>
       </c>
       <c r="B49" s="3">
-        <v>715.03</v>
+        <v>293.36</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -1748,10 +1838,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>39416</v>
+        <v>39233</v>
       </c>
       <c r="B50" s="3">
-        <v>795.12</v>
+        <v>364.62</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -1774,10 +1864,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>39447</v>
+        <v>39263</v>
       </c>
       <c r="B51" s="3">
-        <v>879.15</v>
+        <v>437.38</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -1800,10 +1890,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>39478</v>
+        <v>39294</v>
       </c>
       <c r="B52" s="3">
-        <v>85.94</v>
+        <v>501.36</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -1826,10 +1916,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>39507</v>
+        <v>39325</v>
       </c>
       <c r="B53" s="3">
-        <v>152.30000000000001</v>
+        <v>568.53</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -1852,10 +1942,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>39538</v>
+        <v>39355</v>
       </c>
       <c r="B54" s="3">
-        <v>257.95999999999998</v>
+        <v>645.79999999999995</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -1878,10 +1968,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>39568</v>
+        <v>39386</v>
       </c>
       <c r="B55" s="3">
-        <v>350.15</v>
+        <v>715.03</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -1904,10 +1994,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>39599</v>
+        <v>39416</v>
       </c>
       <c r="B56" s="3">
-        <v>433.71</v>
+        <v>795.12</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -1930,10 +2020,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>39629</v>
+        <v>39447</v>
       </c>
       <c r="B57" s="3">
-        <v>518.22</v>
+        <v>879.15</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -1956,10 +2046,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>39660</v>
+        <v>39478</v>
       </c>
       <c r="B58" s="3">
-        <v>584.9</v>
+        <v>85.94</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
@@ -1982,10 +2072,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>39691</v>
+        <v>39507</v>
       </c>
       <c r="B59" s="3">
-        <v>647.78</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -2008,10 +2098,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>39721</v>
+        <v>39538</v>
       </c>
       <c r="B60" s="3">
-        <v>722.92</v>
+        <v>257.95999999999998</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
@@ -2034,10 +2124,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>39752</v>
+        <v>39568</v>
       </c>
       <c r="B61" s="3">
-        <v>794.48</v>
+        <v>350.15</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -2060,10 +2150,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>39782</v>
+        <v>39599</v>
       </c>
       <c r="B62" s="3">
-        <v>862.98</v>
+        <v>433.71</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -2086,10 +2176,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>39813</v>
+        <v>39629</v>
       </c>
       <c r="B63" s="3">
-        <v>938.05</v>
+        <v>518.22</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -2112,10 +2202,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>39844</v>
+        <v>39660</v>
       </c>
       <c r="B64" s="3">
-        <v>73.59</v>
+        <v>584.9</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
@@ -2138,10 +2228,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>39872</v>
+        <v>39691</v>
       </c>
       <c r="B65" s="3">
-        <v>156.36000000000001</v>
+        <v>647.78</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
@@ -2164,10 +2254,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>39903</v>
+        <v>39721</v>
       </c>
       <c r="B66" s="3">
-        <v>267.88</v>
+        <v>722.92</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -2190,10 +2280,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>39933</v>
+        <v>39752</v>
       </c>
       <c r="B67" s="3">
-        <v>383.19</v>
+        <v>794.48</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -2216,10 +2306,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>39964</v>
+        <v>39782</v>
       </c>
       <c r="B68" s="3">
-        <v>495.68</v>
+        <v>862.98</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -2242,10 +2332,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>39994</v>
+        <v>39813</v>
       </c>
       <c r="B69" s="3">
-        <v>609.88</v>
+        <v>938.05</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
@@ -2268,10 +2358,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>40025</v>
+        <v>39844</v>
       </c>
       <c r="B70" s="3">
-        <v>718.44</v>
+        <v>73.59</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -2294,10 +2384,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>40056</v>
+        <v>39872</v>
       </c>
       <c r="B71" s="3">
-        <v>833.13</v>
+        <v>156.36000000000001</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
@@ -2320,10 +2410,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>40086</v>
+        <v>39903</v>
       </c>
       <c r="B72" s="3">
-        <v>966.27</v>
+        <v>267.88</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -2346,10 +2436,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>40117</v>
+        <v>39933</v>
       </c>
       <c r="B73" s="3">
-        <v>1089.1400000000001</v>
+        <v>383.19</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -2372,10 +2462,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>40147</v>
+        <v>39964</v>
       </c>
       <c r="B74" s="3">
-        <v>1223.04</v>
+        <v>495.68</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -2398,10 +2488,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>40178</v>
+        <v>39994</v>
       </c>
       <c r="B75" s="3">
-        <v>1364.48</v>
+        <v>609.88</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
@@ -2424,10 +2514,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>40209</v>
+        <v>40025</v>
       </c>
       <c r="B76" s="3">
-        <v>166.42</v>
+        <v>718.44</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
@@ -2450,10 +2540,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>40237</v>
+        <v>40056</v>
       </c>
       <c r="B77" s="3">
-        <v>287.57</v>
+        <v>833.13</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
@@ -2476,10 +2566,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>40268</v>
+        <v>40086</v>
       </c>
       <c r="B78" s="3">
-        <v>461.06</v>
+        <v>966.27</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
@@ -2502,10 +2592,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>40298</v>
+        <v>40117</v>
       </c>
       <c r="B79" s="3">
-        <v>616.59</v>
+        <v>1089.1400000000001</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -2528,10 +2618,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>40329</v>
+        <v>40147</v>
       </c>
       <c r="B80" s="3">
-        <v>760.41</v>
+        <v>1223.04</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
@@ -2554,10 +2644,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>40359</v>
+        <v>40178</v>
       </c>
       <c r="B81" s="3">
-        <v>901.61</v>
+        <v>1364.48</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
@@ -2580,10 +2670,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>40390</v>
+        <v>40209</v>
       </c>
       <c r="B82" s="3">
-        <v>1026.02</v>
+        <v>166.42</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
@@ -2606,10 +2696,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>40421</v>
+        <v>40237</v>
       </c>
       <c r="B83" s="3">
-        <v>1158.26</v>
+        <v>287.57</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
@@ -2632,10 +2722,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>40451</v>
+        <v>40268</v>
       </c>
       <c r="B84" s="3">
-        <v>1313.84</v>
+        <v>461.06</v>
       </c>
       <c r="C84" s="3">
         <v>0</v>
@@ -2658,10 +2748,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>40482</v>
+        <v>40298</v>
       </c>
       <c r="B85" s="3">
-        <v>1467.7</v>
+        <v>616.59</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
@@ -2684,10 +2774,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>40512</v>
+        <v>40329</v>
       </c>
       <c r="B86" s="3">
-        <v>1639.54</v>
+        <v>760.41</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
@@ -2710,13 +2800,13 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>40543</v>
+        <v>40359</v>
       </c>
       <c r="B87" s="3">
-        <v>1806.19</v>
+        <v>901.61</v>
       </c>
       <c r="C87" s="3">
-        <v>4884</v>
+        <v>0</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -2736,10 +2826,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>40574</v>
+        <v>40390</v>
       </c>
       <c r="B88" s="3">
-        <v>189.44</v>
+        <v>1026.02</v>
       </c>
       <c r="C88" s="3">
         <v>0</v>
@@ -2762,10 +2852,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>40602</v>
+        <v>40421</v>
       </c>
       <c r="B89" s="3">
-        <v>315.54000000000002</v>
+        <v>1158.26</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
@@ -2788,10 +2878,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>40633</v>
+        <v>40451</v>
       </c>
       <c r="B90" s="3">
-        <v>498.38</v>
+        <v>1313.84</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
@@ -2814,10 +2904,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>40663</v>
+        <v>40482</v>
       </c>
       <c r="B91" s="3">
-        <v>653.39</v>
+        <v>1467.7</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
@@ -2840,10 +2930,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>40694</v>
+        <v>40512</v>
       </c>
       <c r="B92" s="3">
-        <v>791.62</v>
+        <v>1639.54</v>
       </c>
       <c r="C92" s="3">
         <v>0</v>
@@ -2866,13 +2956,13 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>40724</v>
+        <v>40543</v>
       </c>
       <c r="B93" s="3">
-        <v>932.52</v>
+        <v>1806.19</v>
       </c>
       <c r="C93" s="3">
-        <v>0</v>
+        <v>4884</v>
       </c>
       <c r="D93" s="3">
         <v>0</v>
@@ -2892,10 +2982,10 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>40755</v>
+        <v>40574</v>
       </c>
       <c r="B94" s="3">
-        <v>1060.18</v>
+        <v>189.44</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
@@ -2918,10 +3008,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>40786</v>
+        <v>40602</v>
       </c>
       <c r="B95" s="3">
-        <v>1198.3599999999999</v>
+        <v>315.54000000000002</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -2944,10 +3034,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>40816</v>
+        <v>40633</v>
       </c>
       <c r="B96" s="3">
-        <v>1363.35</v>
+        <v>498.38</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -2970,10 +3060,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>40847</v>
+        <v>40663</v>
       </c>
       <c r="B97" s="3">
-        <v>1516.06</v>
+        <v>653.39</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -2996,22 +3086,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>40877</v>
+        <v>40694</v>
       </c>
       <c r="B98" s="3">
-        <v>1681.56</v>
+        <v>791.62</v>
       </c>
       <c r="C98" s="3">
-        <v>7577</v>
+        <v>0</v>
       </c>
       <c r="D98" s="3">
         <v>0</v>
       </c>
       <c r="E98" s="3">
-        <v>5093</v>
+        <v>0</v>
       </c>
       <c r="F98" s="3">
-        <v>2484</v>
+        <v>0</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -3022,22 +3112,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>40908</v>
+        <v>40724</v>
       </c>
       <c r="B99" s="3">
-        <v>1850.51</v>
+        <v>932.52</v>
       </c>
       <c r="C99" s="3">
-        <v>8159</v>
+        <v>0</v>
       </c>
       <c r="D99" s="3">
         <v>0</v>
       </c>
       <c r="E99" s="3">
-        <v>5579</v>
+        <v>0</v>
       </c>
       <c r="F99" s="3">
-        <v>2580</v>
+        <v>0</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -3048,22 +3138,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>40939</v>
+        <v>40755</v>
       </c>
       <c r="B100" s="3">
-        <v>138.97999999999999</v>
+        <v>1060.18</v>
       </c>
       <c r="C100" s="3">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3074,22 +3164,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>40968</v>
+        <v>40786</v>
       </c>
       <c r="B101" s="3">
-        <v>295.43</v>
+        <v>1198.3599999999999</v>
       </c>
       <c r="C101" s="3">
-        <v>1216</v>
+        <v>0</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3100,22 +3190,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>40999</v>
+        <v>40816</v>
       </c>
       <c r="B102" s="3">
-        <v>479.27</v>
+        <v>1363.35</v>
       </c>
       <c r="C102" s="3">
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3126,22 +3216,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>41029</v>
+        <v>40847</v>
       </c>
       <c r="B103" s="3">
-        <v>641.75</v>
+        <v>1516.06</v>
       </c>
       <c r="C103" s="3">
-        <v>2962</v>
+        <v>0</v>
       </c>
       <c r="D103" s="3">
         <v>0</v>
       </c>
       <c r="E103" s="3">
-        <v>1567</v>
+        <v>0</v>
       </c>
       <c r="F103" s="3">
-        <v>1395</v>
+        <v>0</v>
       </c>
       <c r="G103" s="3">
         <v>0</v>
@@ -3152,22 +3242,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>41060</v>
+        <v>40877</v>
       </c>
       <c r="B104" s="3">
-        <v>802.35</v>
+        <v>1681.56</v>
       </c>
       <c r="C104" s="3">
-        <v>3784</v>
+        <v>7577</v>
       </c>
       <c r="D104" s="3">
         <v>0</v>
       </c>
       <c r="E104" s="3">
-        <v>1970</v>
+        <v>5093</v>
       </c>
       <c r="F104" s="3">
-        <v>1814</v>
+        <v>2484</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
@@ -3178,22 +3268,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>41090</v>
+        <v>40908</v>
       </c>
       <c r="B105" s="3">
-        <v>959.81</v>
+        <v>1850.51</v>
       </c>
       <c r="C105" s="3">
-        <v>4460</v>
+        <v>8159</v>
       </c>
       <c r="D105" s="3">
         <v>0</v>
       </c>
       <c r="E105" s="3">
-        <v>2227</v>
+        <v>5579</v>
       </c>
       <c r="F105" s="3">
-        <v>2233</v>
+        <v>2580</v>
       </c>
       <c r="G105" s="3">
         <v>0</v>
@@ -3204,22 +3294,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>41121</v>
+        <v>40939</v>
       </c>
       <c r="B106" s="3">
-        <v>1097.94</v>
+        <v>138.97999999999999</v>
       </c>
       <c r="C106" s="3">
-        <v>4954</v>
+        <v>449</v>
       </c>
       <c r="D106" s="3">
         <v>0</v>
       </c>
       <c r="E106" s="3">
-        <v>2408</v>
+        <v>281</v>
       </c>
       <c r="F106" s="3">
-        <v>2546</v>
+        <v>168</v>
       </c>
       <c r="G106" s="3">
         <v>0</v>
@@ -3230,22 +3320,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>41152</v>
+        <v>40968</v>
       </c>
       <c r="B107" s="3">
-        <v>1247.47</v>
+        <v>295.43</v>
       </c>
       <c r="C107" s="3">
-        <v>6019</v>
+        <v>1216</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
       </c>
       <c r="E107" s="3">
-        <v>2661</v>
+        <v>638</v>
       </c>
       <c r="F107" s="3">
-        <v>3358</v>
+        <v>578</v>
       </c>
       <c r="G107" s="3">
         <v>0</v>
@@ -3256,22 +3346,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>41182</v>
+        <v>40999</v>
       </c>
       <c r="B108" s="3">
-        <v>1409.23</v>
+        <v>479.27</v>
       </c>
       <c r="C108" s="3">
-        <v>6982</v>
+        <v>2236</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
       </c>
       <c r="E108" s="3">
-        <v>3009</v>
+        <v>1203</v>
       </c>
       <c r="F108" s="3">
-        <v>3973</v>
+        <v>1033</v>
       </c>
       <c r="G108" s="3">
         <v>0</v>
@@ -3282,22 +3372,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>41213</v>
+        <v>41029</v>
       </c>
       <c r="B109" s="3">
-        <v>1570.07</v>
+        <v>641.75</v>
       </c>
       <c r="C109" s="3">
-        <v>7713</v>
+        <v>2962</v>
       </c>
       <c r="D109" s="3">
         <v>0</v>
       </c>
       <c r="E109" s="3">
-        <v>3517</v>
+        <v>1567</v>
       </c>
       <c r="F109" s="3">
-        <v>4196</v>
+        <v>1395</v>
       </c>
       <c r="G109" s="3">
         <v>0</v>
@@ -3308,22 +3398,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>41243</v>
+        <v>41060</v>
       </c>
       <c r="B110" s="3">
-        <v>1749.32</v>
+        <v>802.35</v>
       </c>
       <c r="C110" s="3">
-        <v>0</v>
+        <v>3784</v>
       </c>
       <c r="D110" s="3">
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="F110" s="3">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="G110" s="3">
         <v>0</v>
@@ -3334,22 +3424,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>41274</v>
+        <v>41090</v>
       </c>
       <c r="B111" s="3">
-        <v>1930.64</v>
+        <v>959.81</v>
       </c>
       <c r="C111" s="3">
-        <v>12791</v>
+        <v>4460</v>
       </c>
       <c r="D111" s="3">
         <v>0</v>
       </c>
       <c r="E111" s="3">
-        <v>11375</v>
+        <v>2227</v>
       </c>
       <c r="F111" s="3">
-        <v>1416</v>
+        <v>2233</v>
       </c>
       <c r="G111" s="3">
         <v>0</v>
@@ -3360,22 +3450,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>41305</v>
+        <v>41121</v>
       </c>
       <c r="B112" s="3">
-        <v>203.45</v>
+        <v>1097.94</v>
       </c>
       <c r="C112" s="3">
-        <v>0</v>
+        <v>4954</v>
       </c>
       <c r="D112" s="3">
         <v>0</v>
       </c>
       <c r="E112" s="3">
-        <v>0</v>
+        <v>2408</v>
       </c>
       <c r="F112" s="3">
-        <v>0</v>
+        <v>2546</v>
       </c>
       <c r="G112" s="3">
         <v>0</v>
@@ -3386,22 +3476,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>41333</v>
+        <v>41152</v>
       </c>
       <c r="B113" s="3">
-        <v>338.91</v>
+        <v>1247.47</v>
       </c>
       <c r="C113" s="3">
-        <v>0</v>
+        <v>6019</v>
       </c>
       <c r="D113" s="3">
         <v>0</v>
       </c>
       <c r="E113" s="3">
-        <v>0</v>
+        <v>2661</v>
       </c>
       <c r="F113" s="3">
-        <v>0</v>
+        <v>3358</v>
       </c>
       <c r="G113" s="3">
         <v>0</v>
@@ -3412,48 +3502,48 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>41364</v>
+        <v>41182</v>
       </c>
       <c r="B114" s="3">
-        <v>542.45000000000005</v>
+        <v>1409.23</v>
       </c>
       <c r="C114" s="3">
-        <v>3175</v>
+        <v>6982</v>
       </c>
       <c r="D114" s="3">
         <v>0</v>
       </c>
       <c r="E114" s="3">
-        <v>2874</v>
+        <v>3009</v>
       </c>
       <c r="F114" s="3">
-        <v>301</v>
+        <v>3973</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
       </c>
       <c r="H114" s="3">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>41394</v>
+        <v>41213</v>
       </c>
       <c r="B115" s="3">
-        <v>726.62</v>
+        <v>1570.07</v>
       </c>
       <c r="C115" s="3">
-        <v>0</v>
+        <v>7713</v>
       </c>
       <c r="D115" s="3">
         <v>0</v>
       </c>
       <c r="E115" s="3">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="F115" s="3">
-        <v>0</v>
+        <v>4196</v>
       </c>
       <c r="G115" s="3">
         <v>0</v>
@@ -3464,10 +3554,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>41425</v>
+        <v>41243</v>
       </c>
       <c r="B116" s="3">
-        <v>902.81</v>
+        <v>1749.32</v>
       </c>
       <c r="C116" s="3">
         <v>0</v>
@@ -3490,36 +3580,36 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>41455</v>
+        <v>41274</v>
       </c>
       <c r="B117" s="3">
-        <v>1078.22</v>
+        <v>1930.64</v>
       </c>
       <c r="C117" s="3">
-        <v>5889</v>
+        <v>12791</v>
       </c>
       <c r="D117" s="3">
         <v>0</v>
       </c>
       <c r="E117" s="3">
-        <v>5114</v>
+        <v>11375</v>
       </c>
       <c r="F117" s="3">
-        <v>775</v>
+        <v>1416</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
       </c>
       <c r="H117" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>41486</v>
+        <v>41305</v>
       </c>
       <c r="B118" s="3">
-        <v>1229.8599999999999</v>
+        <v>203.45</v>
       </c>
       <c r="C118" s="3">
         <v>0</v>
@@ -3542,10 +3632,10 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>41517</v>
+        <v>41333</v>
       </c>
       <c r="B119" s="3">
-        <v>1394.76</v>
+        <v>338.91</v>
       </c>
       <c r="C119" s="3">
         <v>0</v>
@@ -3568,22 +3658,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>41547</v>
+        <v>41364</v>
       </c>
       <c r="B120" s="3">
-        <v>1588.31</v>
+        <v>542.45000000000005</v>
       </c>
       <c r="C120" s="3">
-        <v>10043</v>
+        <v>3175</v>
       </c>
       <c r="D120" s="3">
         <v>0</v>
       </c>
       <c r="E120" s="3">
-        <v>0</v>
+        <v>2874</v>
       </c>
       <c r="F120" s="3">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -3594,10 +3684,10 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>41578</v>
+        <v>41394</v>
       </c>
       <c r="B121" s="3">
-        <v>1781.58</v>
+        <v>726.62</v>
       </c>
       <c r="C121" s="3">
         <v>0</v>
@@ -3620,10 +3710,10 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>41608</v>
+        <v>41425</v>
       </c>
       <c r="B122" s="3">
-        <v>1986.01</v>
+        <v>902.81</v>
       </c>
       <c r="C122" s="3">
         <v>0</v>
@@ -3646,36 +3736,36 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>41639</v>
+        <v>41455</v>
       </c>
       <c r="B123" s="3">
-        <v>2198.41</v>
+        <v>1078.22</v>
       </c>
       <c r="C123" s="3">
-        <v>17642</v>
+        <v>5889</v>
       </c>
       <c r="D123" s="3">
         <v>0</v>
       </c>
       <c r="E123" s="3">
-        <v>14604</v>
+        <v>5114</v>
       </c>
       <c r="F123" s="3">
-        <v>3038</v>
+        <v>775</v>
       </c>
       <c r="G123" s="3">
         <v>0</v>
       </c>
       <c r="H123" s="3">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>41670</v>
+        <v>41486</v>
       </c>
       <c r="B124" s="3">
-        <v>215.64</v>
+        <v>1229.8599999999999</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
@@ -3698,10 +3788,10 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>41698</v>
+        <v>41517</v>
       </c>
       <c r="B125" s="3">
-        <v>375.29</v>
+        <v>1394.76</v>
       </c>
       <c r="C125" s="3">
         <v>0</v>
@@ -3724,36 +3814,36 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>41729</v>
+        <v>41547</v>
       </c>
       <c r="B126" s="3">
-        <v>592.23</v>
+        <v>1588.31</v>
       </c>
       <c r="C126" s="3">
-        <v>6853</v>
+        <v>10043</v>
       </c>
       <c r="D126" s="3">
         <v>0</v>
       </c>
       <c r="E126" s="3">
-        <v>4095</v>
+        <v>0</v>
       </c>
       <c r="F126" s="3">
-        <v>2758</v>
+        <v>0</v>
       </c>
       <c r="G126" s="3">
         <v>0</v>
       </c>
       <c r="H126" s="3">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>41759</v>
+        <v>41578</v>
       </c>
       <c r="B127" s="3">
-        <v>792.51</v>
+        <v>1781.58</v>
       </c>
       <c r="C127" s="3">
         <v>0</v>
@@ -3776,10 +3866,10 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>41790</v>
+        <v>41608</v>
       </c>
       <c r="B128" s="3">
-        <v>983.81</v>
+        <v>1986.01</v>
       </c>
       <c r="C128" s="3">
         <v>0</v>
@@ -3802,36 +3892,36 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>41820</v>
+        <v>41639</v>
       </c>
       <c r="B129" s="3">
-        <v>1168.3499999999999</v>
+        <v>2198.41</v>
       </c>
       <c r="C129" s="3">
-        <v>20477</v>
+        <v>17642</v>
       </c>
       <c r="D129" s="3">
         <v>0</v>
       </c>
       <c r="E129" s="3">
-        <v>11777</v>
+        <v>14604</v>
       </c>
       <c r="F129" s="3">
-        <v>8700</v>
+        <v>3038</v>
       </c>
       <c r="G129" s="3">
         <v>0</v>
       </c>
       <c r="H129" s="3">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>41851</v>
+        <v>41670</v>
       </c>
       <c r="B130" s="3">
-        <v>1330.17</v>
+        <v>215.64</v>
       </c>
       <c r="C130" s="3">
         <v>0</v>
@@ -3854,10 +3944,10 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>41882</v>
+        <v>41698</v>
       </c>
       <c r="B131" s="3">
-        <v>1501.73</v>
+        <v>375.29</v>
       </c>
       <c r="C131" s="3">
         <v>0</v>
@@ -3880,36 +3970,36 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>41912</v>
+        <v>41729</v>
       </c>
       <c r="B132" s="3">
-        <v>1700.09</v>
+        <v>592.23</v>
       </c>
       <c r="C132" s="3">
-        <v>38163</v>
+        <v>6853</v>
       </c>
       <c r="D132" s="3">
         <v>0</v>
       </c>
       <c r="E132" s="3">
-        <v>22258</v>
+        <v>4095</v>
       </c>
       <c r="F132" s="3">
-        <v>15905</v>
+        <v>2758</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
       </c>
       <c r="H132" s="3">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>41943</v>
+        <v>41759</v>
       </c>
       <c r="B133" s="3">
-        <v>1898.81</v>
+        <v>792.51</v>
       </c>
       <c r="C133" s="3">
         <v>0</v>
@@ -3932,146 +4022,146 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>41973</v>
+        <v>41790</v>
       </c>
       <c r="B134" s="3">
-        <v>2107.91</v>
+        <v>983.81</v>
       </c>
       <c r="C134" s="3">
-        <v>52944</v>
+        <v>0</v>
       </c>
       <c r="D134" s="3">
         <v>0</v>
       </c>
       <c r="E134" s="3">
-        <v>29060</v>
+        <v>0</v>
       </c>
       <c r="F134" s="3">
-        <v>23884</v>
+        <v>0</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
       </c>
       <c r="H134" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>42004</v>
+        <v>41820</v>
       </c>
       <c r="B135" s="3">
-        <v>2349.19</v>
+        <v>1168.3499999999999</v>
       </c>
       <c r="C135" s="3">
-        <v>74763</v>
+        <v>20477</v>
       </c>
       <c r="D135" s="3">
         <v>0</v>
       </c>
       <c r="E135" s="3">
-        <v>45048</v>
+        <v>11777</v>
       </c>
       <c r="F135" s="3">
-        <v>29715</v>
+        <v>8700</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
       </c>
       <c r="H135" s="3">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>42035</v>
+        <v>41851</v>
       </c>
       <c r="B136" s="3">
-        <v>231.96</v>
+        <v>1330.17</v>
       </c>
       <c r="C136" s="3">
-        <v>6395</v>
+        <v>0</v>
       </c>
       <c r="D136" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E136" s="3">
-        <v>3106</v>
+        <v>0</v>
       </c>
       <c r="F136" s="3">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
       </c>
       <c r="H136" s="3">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>42063</v>
+        <v>41882</v>
       </c>
       <c r="B137" s="3">
-        <v>391.29</v>
+        <v>1501.73</v>
       </c>
       <c r="C137" s="3">
-        <v>12440</v>
+        <v>0</v>
       </c>
       <c r="D137" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E137" s="3">
-        <v>5996</v>
+        <v>0</v>
       </c>
       <c r="F137" s="3">
-        <v>6444</v>
+        <v>0</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
       </c>
       <c r="H137" s="3">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>42094</v>
+        <v>41912</v>
       </c>
       <c r="B138" s="3">
-        <v>615.29999999999995</v>
+        <v>1700.09</v>
       </c>
       <c r="C138" s="3">
-        <v>26581</v>
+        <v>38163</v>
       </c>
       <c r="D138" s="3">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="E138" s="3">
-        <v>15405</v>
+        <v>22258</v>
       </c>
       <c r="F138" s="3">
-        <v>11176</v>
+        <v>15905</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
       </c>
       <c r="H138" s="3">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>42124</v>
+        <v>41943</v>
       </c>
       <c r="B139" s="3">
-        <v>814.48</v>
+        <v>1898.81</v>
       </c>
       <c r="C139" s="3">
-        <v>36581</v>
+        <v>0</v>
       </c>
       <c r="D139" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
@@ -4083,177 +4173,177 @@
         <v>0</v>
       </c>
       <c r="H139" s="3">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>42155</v>
+        <v>41973</v>
       </c>
       <c r="B140" s="3">
-        <v>1004.62</v>
+        <v>2107.91</v>
       </c>
       <c r="C140" s="3">
-        <v>50581</v>
+        <v>52944</v>
       </c>
       <c r="D140" s="3">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="E140" s="3">
-        <v>0</v>
+        <v>29060</v>
       </c>
       <c r="F140" s="3">
-        <v>0</v>
+        <v>23884</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
       </c>
       <c r="H140" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>42185</v>
+        <v>42004</v>
       </c>
       <c r="B141" s="3">
-        <v>1185.03</v>
+        <v>2349.19</v>
       </c>
       <c r="C141" s="3">
-        <v>72711</v>
+        <v>74763</v>
       </c>
       <c r="D141" s="3">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="E141" s="3">
-        <v>46219</v>
+        <v>45048</v>
       </c>
       <c r="F141" s="3">
-        <v>26492</v>
+        <v>29715</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
       </c>
       <c r="H141" s="3">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>42216</v>
+        <v>42035</v>
       </c>
       <c r="B142" s="3">
-        <v>1335.33</v>
+        <v>231.96</v>
       </c>
       <c r="C142" s="3">
-        <v>89549</v>
+        <v>6395</v>
       </c>
       <c r="D142" s="3">
-        <v>64000</v>
+        <v>4000</v>
       </c>
       <c r="E142" s="3">
-        <v>55180</v>
+        <v>3106</v>
       </c>
       <c r="F142" s="3">
-        <v>34369</v>
+        <v>3289</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
       </c>
       <c r="H142" s="3">
-        <v>0.67</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>42247</v>
+        <v>42063</v>
       </c>
       <c r="B143" s="3">
-        <v>1501.72</v>
+        <v>391.29</v>
       </c>
       <c r="C143" s="3">
-        <v>108654</v>
+        <v>12440</v>
       </c>
       <c r="D143" s="3">
-        <v>76000</v>
+        <v>8000</v>
       </c>
       <c r="E143" s="3">
-        <v>68316</v>
+        <v>5996</v>
       </c>
       <c r="F143" s="3">
-        <v>40338</v>
+        <v>6444</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
       </c>
       <c r="H143" s="3">
-        <v>0.72</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>42277</v>
+        <v>42094</v>
       </c>
       <c r="B144" s="3">
-        <v>1705.65</v>
+        <v>615.29999999999995</v>
       </c>
       <c r="C144" s="3">
-        <v>136733</v>
+        <v>26581</v>
       </c>
       <c r="D144" s="3">
-        <v>95000</v>
+        <v>19000</v>
       </c>
       <c r="E144" s="3">
-        <v>87531</v>
+        <v>15405</v>
       </c>
       <c r="F144" s="3">
-        <v>49202</v>
+        <v>11176</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
       </c>
       <c r="H144" s="3">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>42308</v>
+        <v>42124</v>
       </c>
       <c r="B145" s="3">
-        <v>1927.81</v>
+        <v>814.48</v>
       </c>
       <c r="C145" s="3">
-        <v>171145</v>
+        <v>36581</v>
       </c>
       <c r="D145" s="3">
-        <v>116000</v>
+        <v>27000</v>
       </c>
       <c r="E145" s="3">
-        <v>113810</v>
+        <v>0</v>
       </c>
       <c r="F145" s="3">
-        <v>57335</v>
+        <v>0</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
       </c>
       <c r="H145" s="3">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>42338</v>
+        <v>42155</v>
       </c>
       <c r="B146" s="3">
-        <v>2178.66</v>
+        <v>1004.62</v>
       </c>
       <c r="C146" s="3">
-        <v>247037</v>
+        <v>50581</v>
       </c>
       <c r="D146" s="3">
-        <v>146000</v>
+        <v>37000</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
@@ -4265,2814 +4355,2970 @@
         <v>0</v>
       </c>
       <c r="H146" s="3">
-        <v>1.1299999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>42369</v>
+        <v>42185</v>
       </c>
       <c r="B147" s="3">
-        <v>2459.7600000000002</v>
+        <v>1185.03</v>
       </c>
       <c r="C147" s="3">
-        <v>331092</v>
+        <v>72711</v>
       </c>
       <c r="D147" s="3">
-        <v>190000</v>
+        <v>53000</v>
       </c>
       <c r="E147" s="3">
-        <v>247482</v>
+        <v>46219</v>
       </c>
       <c r="F147" s="3">
-        <v>83610</v>
+        <v>26492</v>
       </c>
       <c r="G147" s="3">
         <v>0</v>
       </c>
       <c r="H147" s="3">
-        <v>1.35</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2">
-        <v>42400</v>
+        <v>42216</v>
       </c>
       <c r="B148" s="3">
-        <v>250.06</v>
+        <v>1335.33</v>
       </c>
       <c r="C148" s="3">
-        <v>22000</v>
+        <v>89549</v>
       </c>
       <c r="D148" s="3">
-        <v>14000</v>
+        <v>64000</v>
       </c>
       <c r="E148" s="3">
-        <v>0</v>
+        <v>55180</v>
       </c>
       <c r="F148" s="3">
-        <v>0</v>
+        <v>34369</v>
       </c>
       <c r="G148" s="3">
         <v>0</v>
       </c>
       <c r="H148" s="3">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2">
-        <v>42429</v>
+        <v>42247</v>
       </c>
       <c r="B149" s="3">
-        <v>408.69</v>
+        <v>1501.72</v>
       </c>
       <c r="C149" s="3">
-        <v>35726</v>
+        <v>108654</v>
       </c>
       <c r="D149" s="3">
-        <v>24000</v>
+        <v>76000</v>
       </c>
       <c r="E149" s="3">
-        <v>24835</v>
+        <v>68316</v>
       </c>
       <c r="F149" s="3">
-        <v>10891</v>
+        <v>40338</v>
       </c>
       <c r="G149" s="3">
         <v>0</v>
       </c>
       <c r="H149" s="3">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2">
-        <v>42460</v>
+        <v>42277</v>
       </c>
       <c r="B150" s="3">
-        <v>652.66999999999996</v>
+        <v>1705.65</v>
       </c>
       <c r="C150" s="3">
-        <v>58125</v>
+        <v>136733</v>
       </c>
       <c r="D150" s="3">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="E150" s="3">
-        <v>42131</v>
+        <v>87531</v>
       </c>
       <c r="F150" s="3">
-        <v>15994</v>
+        <v>49202</v>
       </c>
       <c r="G150" s="3">
         <v>0</v>
       </c>
       <c r="H150" s="3">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2">
-        <v>42490</v>
+        <v>42308</v>
       </c>
       <c r="B151" s="3">
-        <v>865</v>
+        <v>1927.81</v>
       </c>
       <c r="C151" s="3">
-        <v>90529</v>
+        <v>171145</v>
       </c>
       <c r="D151" s="3">
-        <v>61000</v>
+        <v>116000</v>
       </c>
       <c r="E151" s="3">
-        <v>66444</v>
+        <v>113810</v>
       </c>
       <c r="F151" s="3">
-        <v>24085</v>
+        <v>57335</v>
       </c>
       <c r="G151" s="3">
         <v>0</v>
       </c>
       <c r="H151" s="3">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2">
-        <v>42521</v>
+        <v>42338</v>
       </c>
       <c r="B152" s="3">
-        <v>1075.52</v>
+        <v>2178.66</v>
       </c>
       <c r="C152" s="3">
-        <v>126000</v>
+        <v>247037</v>
       </c>
       <c r="D152" s="3">
-        <v>87000</v>
+        <v>146000</v>
       </c>
       <c r="E152" s="3">
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="F152" s="3">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="G152" s="3">
         <v>0</v>
       </c>
       <c r="H152" s="3">
-        <v>1.17</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2">
-        <v>42551</v>
+        <v>42369</v>
       </c>
       <c r="B153" s="3">
-        <v>1282.98</v>
+        <v>2459.7600000000002</v>
       </c>
       <c r="C153" s="3">
-        <v>170000</v>
+        <v>331092</v>
       </c>
       <c r="D153" s="3">
-        <v>121000</v>
+        <v>190000</v>
       </c>
       <c r="E153" s="3">
-        <v>126000</v>
+        <v>247482</v>
       </c>
       <c r="F153" s="3">
-        <v>44000</v>
+        <v>83610</v>
       </c>
       <c r="G153" s="3">
         <v>0</v>
       </c>
       <c r="H153" s="3">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2">
-        <v>42582</v>
+        <v>42400</v>
       </c>
       <c r="B154" s="3">
-        <v>1468.39</v>
+        <v>250.06</v>
       </c>
       <c r="C154" s="3">
-        <v>207000</v>
+        <v>22000</v>
       </c>
       <c r="D154" s="3">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="E154" s="3">
-        <v>153000</v>
+        <v>0</v>
       </c>
       <c r="F154" s="3">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="G154" s="3">
         <v>0</v>
       </c>
       <c r="H154" s="3">
-        <v>1.41</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2">
-        <v>42613</v>
+        <v>42429</v>
       </c>
       <c r="B155" s="3">
-        <v>1675.5</v>
+        <v>408.69</v>
       </c>
       <c r="C155" s="3">
-        <v>245000</v>
+        <v>35726</v>
       </c>
       <c r="D155" s="3">
-        <v>180000</v>
+        <v>24000</v>
       </c>
       <c r="E155" s="3">
-        <v>181000</v>
+        <v>24835</v>
       </c>
       <c r="F155" s="3">
-        <v>64000</v>
+        <v>10891</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
       </c>
       <c r="H155" s="3">
-        <v>1.46</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2">
-        <v>42643</v>
+        <v>42460</v>
       </c>
       <c r="B156" s="3">
-        <v>1936.04</v>
+        <v>652.66999999999996</v>
       </c>
       <c r="C156" s="3">
-        <v>289000</v>
+        <v>58125</v>
       </c>
       <c r="D156" s="3">
-        <v>211000</v>
+        <v>40000</v>
       </c>
       <c r="E156" s="3">
-        <v>216000</v>
+        <v>42131</v>
       </c>
       <c r="F156" s="3">
-        <v>73000</v>
+        <v>15994</v>
       </c>
       <c r="G156" s="3">
         <v>0</v>
       </c>
       <c r="H156" s="3">
-        <v>1.49</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2">
-        <v>42674</v>
+        <v>42490</v>
       </c>
       <c r="B157" s="3">
-        <v>2201.7199999999998</v>
+        <v>865</v>
       </c>
       <c r="C157" s="3">
-        <v>337000</v>
+        <v>90529</v>
       </c>
       <c r="D157" s="3">
-        <v>244000</v>
+        <v>61000</v>
       </c>
       <c r="E157" s="3">
-        <v>258000</v>
+        <v>66444</v>
       </c>
       <c r="F157" s="3">
-        <v>79000</v>
+        <v>24085</v>
       </c>
       <c r="G157" s="3">
         <v>0</v>
       </c>
       <c r="H157" s="3">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2">
-        <v>42704</v>
+        <v>42521</v>
       </c>
       <c r="B158" s="3">
-        <v>2494.8000000000002</v>
+        <v>1075.52</v>
       </c>
       <c r="C158" s="3">
-        <v>402000</v>
+        <v>126000</v>
       </c>
       <c r="D158" s="3">
-        <v>290000</v>
+        <v>87000</v>
       </c>
       <c r="E158" s="3">
-        <v>316000</v>
+        <v>92000</v>
       </c>
       <c r="F158" s="3">
-        <v>86000</v>
+        <v>34000</v>
       </c>
       <c r="G158" s="3">
         <v>0</v>
       </c>
       <c r="H158" s="3">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2">
-        <v>42735</v>
+        <v>42551</v>
       </c>
       <c r="B159" s="3">
-        <v>2802.82</v>
+        <v>1282.98</v>
       </c>
       <c r="C159" s="3">
-        <v>507000</v>
+        <v>170000</v>
       </c>
       <c r="D159" s="3">
-        <v>336000</v>
+        <v>121000</v>
       </c>
       <c r="E159" s="3">
-        <v>409000</v>
+        <v>126000</v>
       </c>
       <c r="F159" s="3">
-        <v>98000</v>
+        <v>44000</v>
       </c>
       <c r="G159" s="3">
         <v>0</v>
       </c>
       <c r="H159" s="3">
-        <v>1.81</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2">
-        <v>42766</v>
+        <v>42582</v>
       </c>
       <c r="B160" s="3">
-        <v>251.95</v>
+        <v>1468.39</v>
       </c>
       <c r="C160" s="3">
-        <v>5682</v>
+        <v>207000</v>
       </c>
       <c r="D160" s="3">
-        <v>4608</v>
+        <v>150000</v>
       </c>
       <c r="E160" s="3">
-        <v>4978</v>
+        <v>153000</v>
       </c>
       <c r="F160" s="3">
-        <v>704</v>
+        <v>54000</v>
       </c>
       <c r="G160" s="3">
         <v>0</v>
       </c>
       <c r="H160" s="3">
-        <v>0.23</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2">
-        <v>42794</v>
+        <v>42613</v>
       </c>
       <c r="B161" s="3">
-        <v>445.91</v>
+        <v>1675.5</v>
       </c>
       <c r="C161" s="3">
-        <v>24781</v>
+        <v>245000</v>
       </c>
       <c r="D161" s="3">
-        <v>22712</v>
+        <v>180000</v>
       </c>
       <c r="E161" s="3">
-        <v>18963</v>
+        <v>181000</v>
       </c>
       <c r="F161" s="3">
-        <v>5818</v>
+        <v>64000</v>
       </c>
       <c r="G161" s="3">
         <v>0</v>
       </c>
       <c r="H161" s="3">
-        <v>0.56000000000000005</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2">
-        <v>42825</v>
+        <v>42643</v>
       </c>
       <c r="B162" s="3">
-        <v>700.2</v>
+        <v>1936.04</v>
       </c>
       <c r="C162" s="3">
-        <v>55929</v>
+        <v>289000</v>
       </c>
       <c r="D162" s="3">
-        <v>51230</v>
+        <v>211000</v>
       </c>
       <c r="E162" s="3">
-        <v>44333</v>
+        <v>216000</v>
       </c>
       <c r="F162" s="3">
-        <v>11596</v>
+        <v>73000</v>
       </c>
       <c r="G162" s="3">
         <v>0</v>
       </c>
       <c r="H162" s="3">
-        <v>0.8</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2">
-        <v>42855</v>
+        <v>42674</v>
       </c>
       <c r="B163" s="3">
-        <v>908.6</v>
+        <v>2201.7199999999998</v>
       </c>
       <c r="C163" s="3">
-        <v>90402</v>
+        <v>337000</v>
       </c>
       <c r="D163" s="3">
-        <v>81814</v>
+        <v>244000</v>
       </c>
       <c r="E163" s="3">
-        <v>72895</v>
+        <v>258000</v>
       </c>
       <c r="F163" s="3">
-        <v>17507</v>
+        <v>79000</v>
       </c>
       <c r="G163" s="3">
         <v>0</v>
       </c>
       <c r="H163" s="3">
-        <v>0.99</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2">
-        <v>42886</v>
+        <v>42704</v>
       </c>
       <c r="B164" s="3">
-        <v>1118.2</v>
+        <v>2494.8000000000002</v>
       </c>
       <c r="C164" s="3">
-        <v>136000</v>
+        <v>402000</v>
       </c>
       <c r="D164" s="3">
-        <v>120667</v>
+        <v>290000</v>
       </c>
       <c r="E164" s="3">
-        <v>111000</v>
+        <v>316000</v>
       </c>
       <c r="F164" s="3">
-        <v>24000</v>
+        <v>86000</v>
       </c>
       <c r="G164" s="3">
         <v>0</v>
       </c>
       <c r="H164" s="3">
-        <v>1.22</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2">
-        <v>42916</v>
+        <v>42735</v>
       </c>
       <c r="B165" s="3">
-        <v>1335.39</v>
+        <v>2802.82</v>
       </c>
       <c r="C165" s="3">
-        <v>195000</v>
+        <v>507000</v>
       </c>
       <c r="D165" s="3">
-        <v>164000</v>
+        <v>336000</v>
       </c>
       <c r="E165" s="3">
-        <v>160000</v>
+        <v>409000</v>
       </c>
       <c r="F165" s="3">
-        <v>35000</v>
+        <v>98000</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
       </c>
       <c r="H165" s="3">
-        <v>1.46</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2">
-        <v>42947</v>
+        <v>42766</v>
       </c>
       <c r="B166" s="3">
-        <v>1532.52</v>
+        <v>251.95</v>
       </c>
       <c r="C166" s="3">
-        <v>251000</v>
+        <v>5682</v>
       </c>
       <c r="D166" s="3">
-        <v>208000</v>
+        <v>4608</v>
       </c>
       <c r="E166" s="3">
-        <v>204000</v>
+        <v>4978</v>
       </c>
       <c r="F166" s="3">
-        <v>47000</v>
+        <v>704</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
       </c>
       <c r="H166" s="3">
-        <v>1.64</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2">
-        <v>42978</v>
+        <v>42794</v>
       </c>
       <c r="B167" s="3">
-        <v>1751.11</v>
+        <v>445.91</v>
       </c>
       <c r="C167" s="3">
-        <v>320000</v>
+        <v>24781</v>
       </c>
       <c r="D167" s="3">
-        <v>263000</v>
+        <v>22712</v>
       </c>
       <c r="E167" s="3">
-        <v>260000</v>
+        <v>18963</v>
       </c>
       <c r="F167" s="3">
-        <v>59000</v>
+        <v>5818</v>
       </c>
       <c r="G167" s="3">
         <v>0</v>
       </c>
       <c r="H167" s="3">
-        <v>1.83</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2">
-        <v>43008</v>
+        <v>42825</v>
       </c>
       <c r="B168" s="3">
-        <v>2022.45</v>
+        <v>700.2</v>
       </c>
       <c r="C168" s="3">
-        <v>398000</v>
+        <v>55929</v>
       </c>
       <c r="D168" s="3">
-        <v>325000</v>
+        <v>51230</v>
       </c>
       <c r="E168" s="3">
-        <v>325000</v>
+        <v>44333</v>
       </c>
       <c r="F168" s="3">
-        <v>73000</v>
+        <v>11596</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
       </c>
       <c r="H168" s="3">
-        <v>1.97</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2">
-        <v>43039</v>
+        <v>42855</v>
       </c>
       <c r="B169" s="3">
-        <v>2292.71</v>
+        <v>908.6</v>
       </c>
       <c r="C169" s="3">
-        <v>490000</v>
+        <v>90402</v>
       </c>
       <c r="D169" s="3">
-        <v>393000</v>
+        <v>81814</v>
       </c>
       <c r="E169" s="3">
-        <v>402000</v>
+        <v>72895</v>
       </c>
       <c r="F169" s="3">
-        <v>88000</v>
+        <v>17507</v>
       </c>
       <c r="G169" s="3">
         <v>0</v>
       </c>
       <c r="H169" s="3">
-        <v>2.14</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2">
-        <v>43069</v>
+        <v>42886</v>
       </c>
       <c r="B170" s="3">
-        <v>2584.4899999999998</v>
+        <v>1118.2</v>
       </c>
       <c r="C170" s="3">
-        <v>609000</v>
+        <v>136000</v>
       </c>
       <c r="D170" s="3">
-        <v>476000</v>
+        <v>120667</v>
       </c>
       <c r="E170" s="3">
-        <v>504000</v>
+        <v>111000</v>
       </c>
       <c r="F170" s="3">
-        <v>105000</v>
+        <v>24000</v>
       </c>
       <c r="G170" s="3">
         <v>0</v>
       </c>
       <c r="H170" s="3">
-        <v>2.36</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2">
-        <v>43100</v>
+        <v>42916</v>
       </c>
       <c r="B171" s="3">
-        <v>2887.89</v>
+        <v>1335.39</v>
       </c>
       <c r="C171" s="3">
-        <v>777000</v>
+        <v>195000</v>
       </c>
       <c r="D171" s="3">
-        <v>578000</v>
+        <v>164000</v>
       </c>
       <c r="E171" s="3">
-        <v>652000</v>
+        <v>160000</v>
       </c>
       <c r="F171" s="3">
-        <v>125000</v>
+        <v>35000</v>
       </c>
       <c r="G171" s="3">
         <v>0</v>
       </c>
       <c r="H171" s="3">
-        <v>2.69</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2">
-        <v>43131</v>
+        <v>42947</v>
       </c>
       <c r="B172" s="3">
-        <v>280.92</v>
+        <v>1532.52</v>
       </c>
       <c r="C172" s="3">
-        <v>38470</v>
+        <v>251000</v>
       </c>
       <c r="D172" s="3">
-        <v>33848</v>
+        <v>208000</v>
       </c>
       <c r="E172" s="3">
-        <v>26753</v>
+        <v>204000</v>
       </c>
       <c r="F172" s="3">
-        <v>11717</v>
+        <v>47000</v>
       </c>
       <c r="G172" s="3">
         <v>0</v>
       </c>
       <c r="H172" s="3">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2">
-        <v>43159</v>
+        <v>42978</v>
       </c>
       <c r="B173" s="3">
-        <v>452.67</v>
+        <v>1751.11</v>
       </c>
       <c r="C173" s="3">
-        <v>74667</v>
+        <v>320000</v>
       </c>
       <c r="D173" s="3">
-        <v>67837</v>
+        <v>263000</v>
       </c>
       <c r="E173" s="3">
-        <v>50253</v>
+        <v>260000</v>
       </c>
       <c r="F173" s="3">
-        <v>24414</v>
+        <v>59000</v>
       </c>
       <c r="G173" s="3">
         <v>0</v>
       </c>
       <c r="H173" s="3">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2">
-        <v>43190</v>
+        <v>43008</v>
       </c>
       <c r="B174" s="3">
-        <v>718.27</v>
+        <v>2022.45</v>
       </c>
       <c r="C174" s="3">
-        <v>143000</v>
+        <v>398000</v>
       </c>
       <c r="D174" s="3">
-        <v>129385</v>
+        <v>325000</v>
       </c>
       <c r="E174" s="3">
-        <v>102000</v>
+        <v>325000</v>
       </c>
       <c r="F174" s="3">
-        <v>40000</v>
+        <v>73000</v>
       </c>
       <c r="G174" s="3">
         <v>0</v>
       </c>
       <c r="H174" s="3">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2">
-        <v>43220</v>
+        <v>43039</v>
       </c>
       <c r="B175" s="3">
-        <v>950.12</v>
+        <v>2292.71</v>
       </c>
       <c r="C175" s="3">
-        <v>225000</v>
+        <v>490000</v>
       </c>
       <c r="D175" s="3">
-        <v>198303</v>
+        <v>393000</v>
       </c>
       <c r="E175" s="3">
-        <v>168000</v>
+        <v>402000</v>
       </c>
       <c r="F175" s="3">
-        <v>57000</v>
+        <v>88000</v>
       </c>
       <c r="G175" s="3">
         <v>0</v>
       </c>
       <c r="H175" s="3">
-        <v>2.37</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2">
-        <v>43251</v>
+        <v>43069</v>
       </c>
       <c r="B176" s="3">
-        <v>1179.24</v>
+        <v>2584.4899999999998</v>
       </c>
       <c r="C176" s="3">
-        <v>328000</v>
+        <v>609000</v>
       </c>
       <c r="D176" s="3">
-        <v>282000</v>
+        <v>476000</v>
       </c>
       <c r="E176" s="3">
-        <v>250000</v>
+        <v>504000</v>
       </c>
       <c r="F176" s="3">
-        <v>78000</v>
+        <v>105000</v>
       </c>
       <c r="G176" s="3">
         <v>0</v>
       </c>
       <c r="H176" s="3">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2">
-        <v>43281</v>
+        <v>43100</v>
       </c>
       <c r="B177" s="3">
-        <v>1406.65</v>
+        <v>2887.89</v>
       </c>
       <c r="C177" s="3">
-        <v>412000</v>
+        <v>777000</v>
       </c>
       <c r="D177" s="3">
-        <v>355000</v>
+        <v>578000</v>
       </c>
       <c r="E177" s="3">
-        <v>313000</v>
+        <v>652000</v>
       </c>
       <c r="F177" s="3">
-        <v>99000</v>
+        <v>125000</v>
       </c>
       <c r="G177" s="3">
         <v>0</v>
       </c>
       <c r="H177" s="3">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2">
-        <v>43312</v>
+        <v>43131</v>
       </c>
       <c r="B178" s="3">
-        <v>1595.47</v>
+        <v>280.92</v>
       </c>
       <c r="C178" s="3">
-        <v>496000</v>
+        <v>38470</v>
       </c>
       <c r="D178" s="3">
-        <v>428000</v>
+        <v>33848</v>
       </c>
       <c r="E178" s="3">
-        <v>373000</v>
+        <v>26753</v>
       </c>
       <c r="F178" s="3">
-        <v>123000</v>
+        <v>11717</v>
       </c>
       <c r="G178" s="3">
         <v>0</v>
       </c>
       <c r="H178" s="3">
-        <v>3.11</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2">
-        <v>43343</v>
+        <v>43159</v>
       </c>
       <c r="B179" s="3">
-        <v>1809.61</v>
+        <v>452.67</v>
       </c>
       <c r="C179" s="3">
-        <v>601000</v>
+        <v>74667</v>
       </c>
       <c r="D179" s="3">
-        <v>522000</v>
+        <v>67837</v>
       </c>
       <c r="E179" s="3">
-        <v>447000</v>
+        <v>50253</v>
       </c>
       <c r="F179" s="3">
-        <v>154000</v>
+        <v>24414</v>
       </c>
       <c r="G179" s="3">
         <v>0</v>
       </c>
       <c r="H179" s="3">
-        <v>3.32</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2">
-        <v>43373</v>
+        <v>43190</v>
       </c>
       <c r="B180" s="3">
-        <v>2049.06</v>
+        <v>718.27</v>
       </c>
       <c r="C180" s="3">
-        <v>721484</v>
+        <v>143000</v>
       </c>
       <c r="D180" s="3">
-        <v>627586</v>
+        <v>129385</v>
       </c>
       <c r="E180" s="3">
-        <v>540547</v>
+        <v>102000</v>
       </c>
       <c r="F180" s="3">
-        <v>180791</v>
+        <v>40000</v>
       </c>
       <c r="G180" s="3">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="H180" s="3">
-        <v>3.52</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2">
-        <v>43404</v>
+        <v>43220</v>
       </c>
       <c r="B181" s="3">
-        <v>2287.1</v>
+        <v>950.12</v>
       </c>
       <c r="C181" s="3">
-        <v>860128</v>
+        <v>225000</v>
       </c>
       <c r="D181" s="3">
-        <v>745879</v>
+        <v>198303</v>
       </c>
       <c r="E181" s="3">
-        <v>652642</v>
+        <v>168000</v>
       </c>
       <c r="F181" s="3">
-        <v>207338</v>
+        <v>57000</v>
       </c>
       <c r="G181" s="3">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="H181" s="3">
-        <v>3.76</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2">
-        <v>43434</v>
+        <v>43251</v>
       </c>
       <c r="B182" s="3">
-        <v>2541.9699999999998</v>
+        <v>1179.24</v>
       </c>
       <c r="C182" s="3">
-        <v>1029755</v>
+        <v>328000</v>
       </c>
       <c r="D182" s="3">
-        <v>885521</v>
+        <v>282000</v>
       </c>
       <c r="E182" s="3">
-        <v>790892</v>
+        <v>250000</v>
       </c>
       <c r="F182" s="3">
-        <v>238582</v>
+        <v>78000</v>
       </c>
       <c r="G182" s="3">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="H182" s="3">
-        <v>4.05</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B183" s="3">
-        <v>2808.06</v>
+        <v>1406.65</v>
       </c>
       <c r="C183" s="3">
-        <v>1256195</v>
+        <v>412000</v>
       </c>
       <c r="D183" s="3">
-        <v>1052951</v>
+        <v>355000</v>
       </c>
       <c r="E183" s="3">
-        <v>983740</v>
+        <v>313000</v>
       </c>
       <c r="F183" s="3">
-        <v>270928</v>
+        <v>99000</v>
       </c>
       <c r="G183" s="3">
-        <v>1527</v>
+        <v>0</v>
       </c>
       <c r="H183" s="3">
-        <v>4.47</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B184" s="3">
-        <v>236.73</v>
+        <v>1595.47</v>
       </c>
       <c r="C184" s="3">
-        <v>95696</v>
+        <v>496000</v>
       </c>
       <c r="D184" s="3">
-        <v>84803</v>
+        <v>428000</v>
       </c>
       <c r="E184" s="3">
-        <v>74853</v>
+        <v>373000</v>
       </c>
       <c r="F184" s="3">
-        <v>20790</v>
+        <v>123000</v>
       </c>
       <c r="G184" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H184" s="3">
-        <v>4.04</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2">
-        <v>43524</v>
+        <v>43343</v>
       </c>
       <c r="B185" s="3">
-        <v>385.15</v>
+        <v>1809.61</v>
       </c>
       <c r="C185" s="3">
-        <v>148464</v>
+        <v>601000</v>
       </c>
       <c r="D185" s="3">
-        <v>133995</v>
+        <v>522000</v>
       </c>
       <c r="E185" s="3">
-        <v>114462</v>
+        <v>447000</v>
       </c>
       <c r="F185" s="3">
-        <v>33815</v>
+        <v>154000</v>
       </c>
       <c r="G185" s="3">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="H185" s="3">
-        <v>3.85</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2">
-        <v>43555</v>
+        <v>43373</v>
       </c>
       <c r="B186" s="3">
-        <v>637.24</v>
+        <v>2049.06</v>
       </c>
       <c r="C186" s="3">
-        <v>298914</v>
+        <v>721484</v>
       </c>
       <c r="D186" s="3">
-        <v>275729</v>
+        <v>627586</v>
       </c>
       <c r="E186" s="3">
-        <v>226780</v>
+        <v>540547</v>
       </c>
       <c r="F186" s="3">
-        <v>71861</v>
+        <v>180791</v>
       </c>
       <c r="G186" s="3">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="H186" s="3">
-        <v>4.6900000000000004</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2">
-        <v>43585</v>
+        <v>43404</v>
       </c>
       <c r="B187" s="3">
-        <v>835.33</v>
+        <v>2287.1</v>
       </c>
       <c r="C187" s="3">
-        <v>360032</v>
+        <v>860128</v>
       </c>
       <c r="D187" s="3">
-        <v>329942</v>
+        <v>745879</v>
       </c>
       <c r="E187" s="3">
-        <v>277630</v>
+        <v>652642</v>
       </c>
       <c r="F187" s="3">
-        <v>82172</v>
+        <v>207338</v>
       </c>
       <c r="G187" s="3">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="H187" s="3">
-        <v>4.3099999999999996</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2">
-        <v>43616</v>
+        <v>43434</v>
       </c>
       <c r="B188" s="3">
-        <v>1026.5899999999999</v>
+        <v>2541.9699999999998</v>
       </c>
       <c r="C188" s="3">
-        <v>464489</v>
+        <v>1029755</v>
       </c>
       <c r="D188" s="3">
-        <v>425572</v>
+        <v>885521</v>
       </c>
       <c r="E188" s="3">
-        <v>360897</v>
+        <v>790892</v>
       </c>
       <c r="F188" s="3">
-        <v>103047</v>
+        <v>238582</v>
       </c>
       <c r="G188" s="3">
-        <v>545</v>
+        <v>281</v>
       </c>
       <c r="H188" s="3">
-        <v>4.5199999999999996</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="B189" s="3">
-        <v>1232.3</v>
+        <v>2808.06</v>
       </c>
       <c r="C189" s="3">
-        <v>616768</v>
+        <v>1256195</v>
       </c>
       <c r="D189" s="3">
-        <v>562863</v>
+        <v>1052951</v>
       </c>
       <c r="E189" s="3">
-        <v>490152</v>
+        <v>983740</v>
       </c>
       <c r="F189" s="3">
-        <v>125514</v>
+        <v>270928</v>
       </c>
       <c r="G189" s="3">
-        <v>1102</v>
+        <v>1527</v>
       </c>
       <c r="H189" s="3">
-        <v>5.01</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2">
-        <v>43677</v>
+        <v>43496</v>
       </c>
       <c r="B190" s="3">
-        <v>1413.2</v>
+        <v>236.73</v>
       </c>
       <c r="C190" s="3">
-        <v>698722</v>
+        <v>95696</v>
       </c>
       <c r="D190" s="3">
-        <v>631305</v>
+        <v>84803</v>
       </c>
       <c r="E190" s="3">
-        <v>551435</v>
+        <v>74853</v>
       </c>
       <c r="F190" s="3">
-        <v>146181</v>
+        <v>20790</v>
       </c>
       <c r="G190" s="3">
-        <v>1106</v>
+        <v>53</v>
       </c>
       <c r="H190" s="3">
-        <v>4.9400000000000004</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2">
-        <v>43708</v>
+        <v>43524</v>
       </c>
       <c r="B191" s="3">
-        <v>1610.4</v>
+        <v>385.15</v>
       </c>
       <c r="C191" s="3">
-        <v>792738</v>
+        <v>148464</v>
       </c>
       <c r="D191" s="3">
-        <v>719800</v>
+        <v>133995</v>
       </c>
       <c r="E191" s="3">
-        <v>628963</v>
+        <v>114462</v>
       </c>
       <c r="F191" s="3">
-        <v>162650</v>
+        <v>33815</v>
       </c>
       <c r="G191" s="3">
-        <v>1125</v>
+        <v>187</v>
       </c>
       <c r="H191" s="3">
-        <v>4.92</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2">
-        <v>43738</v>
+        <v>43555</v>
       </c>
       <c r="B192" s="3">
-        <v>1837.1</v>
+        <v>637.24</v>
       </c>
       <c r="C192" s="3">
-        <v>872355</v>
+        <v>298914</v>
       </c>
       <c r="D192" s="3">
-        <v>792211</v>
+        <v>275729</v>
       </c>
       <c r="E192" s="3">
-        <v>691844</v>
+        <v>226780</v>
       </c>
       <c r="F192" s="3">
-        <v>179260</v>
+        <v>71861</v>
       </c>
       <c r="G192" s="3">
-        <v>1251</v>
+        <v>273</v>
       </c>
       <c r="H192" s="3">
-        <v>4.75</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2">
-        <v>43769</v>
+        <v>43585</v>
       </c>
       <c r="B193" s="3">
-        <v>2065.1999999999998</v>
+        <v>835.33</v>
       </c>
       <c r="C193" s="3">
-        <v>947403</v>
+        <v>360032</v>
       </c>
       <c r="D193" s="3">
-        <v>858329</v>
+        <v>329942</v>
       </c>
       <c r="E193" s="3">
-        <v>750495</v>
+        <v>277630</v>
       </c>
       <c r="F193" s="3">
-        <v>195581</v>
+        <v>82172</v>
       </c>
       <c r="G193" s="3">
-        <v>1327</v>
+        <v>230</v>
       </c>
       <c r="H193" s="3">
-        <v>4.59</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2">
-        <v>43799</v>
+        <v>43616</v>
       </c>
       <c r="B194" s="3">
-        <v>2311</v>
+        <v>1026.5899999999999</v>
       </c>
       <c r="C194" s="3">
-        <v>1042843</v>
+        <v>464489</v>
       </c>
       <c r="D194" s="3">
-        <v>934879</v>
+        <v>425572</v>
       </c>
       <c r="E194" s="3">
-        <v>831714</v>
+        <v>360897</v>
       </c>
       <c r="F194" s="3">
-        <v>209792</v>
+        <v>103047</v>
       </c>
       <c r="G194" s="3">
-        <v>1337</v>
+        <v>545</v>
       </c>
       <c r="H194" s="3">
-        <v>4.51</v>
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="B195" s="3">
-        <v>2576.9</v>
+        <v>1232.3</v>
       </c>
       <c r="C195" s="3">
-        <v>1205961</v>
+        <v>616768</v>
       </c>
       <c r="D195" s="3">
-        <v>1060303</v>
+        <v>562863</v>
       </c>
       <c r="E195" s="3">
-        <v>971678</v>
+        <v>490152</v>
       </c>
       <c r="F195" s="3">
-        <v>231546</v>
+        <v>125514</v>
       </c>
       <c r="G195" s="3">
-        <v>2737</v>
+        <v>1102</v>
       </c>
       <c r="H195" s="3">
-        <v>4.68</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2">
-        <v>43861</v>
+        <v>43677</v>
       </c>
       <c r="B196" s="3">
-        <v>192.7</v>
+        <v>1413.2</v>
       </c>
       <c r="C196" s="3">
-        <v>46373</v>
+        <v>698722</v>
       </c>
       <c r="D196" s="3">
-        <v>41756</v>
+        <v>631305</v>
       </c>
       <c r="E196" s="3">
-        <v>33453</v>
+        <v>551435</v>
       </c>
       <c r="F196" s="3">
-        <v>12749</v>
+        <v>146181</v>
       </c>
       <c r="G196" s="3">
-        <v>171</v>
+        <v>1106</v>
       </c>
       <c r="H196" s="3">
-        <v>2.41</v>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2">
-        <v>43890</v>
+        <v>43708</v>
       </c>
       <c r="B197" s="3">
-        <v>223.8</v>
+        <v>1610.4</v>
       </c>
       <c r="C197" s="3">
-        <v>59705</v>
+        <v>792738</v>
       </c>
       <c r="D197" s="3">
-        <v>53237</v>
+        <v>719800</v>
       </c>
       <c r="E197" s="3">
-        <v>44557</v>
+        <v>628963</v>
       </c>
       <c r="F197" s="3">
-        <v>14977</v>
+        <v>162650</v>
       </c>
       <c r="G197" s="3">
-        <v>171</v>
+        <v>1125</v>
       </c>
       <c r="H197" s="3">
-        <v>2.67</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2">
-        <v>43921</v>
+        <v>43738</v>
       </c>
       <c r="B198" s="3">
-        <v>367.2</v>
+        <v>1837.1</v>
       </c>
       <c r="C198" s="3">
-        <v>114040</v>
+        <v>872355</v>
       </c>
       <c r="D198" s="3">
-        <v>101540</v>
+        <v>792211</v>
       </c>
       <c r="E198" s="3">
-        <v>84761</v>
+        <v>691844</v>
       </c>
       <c r="F198" s="3">
-        <v>29072</v>
+        <v>179260</v>
       </c>
       <c r="G198" s="3">
-        <v>207</v>
+        <v>1251</v>
       </c>
       <c r="H198" s="3">
-        <v>3.11</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2">
-        <v>43951</v>
+        <v>43769</v>
       </c>
       <c r="B199" s="3">
-        <v>576.1</v>
+        <v>2065.1999999999998</v>
       </c>
       <c r="C199" s="3">
-        <v>205033</v>
+        <v>947403</v>
       </c>
       <c r="D199" s="3">
-        <v>183739</v>
+        <v>858329</v>
       </c>
       <c r="E199" s="3">
-        <v>155255</v>
+        <v>750495</v>
       </c>
       <c r="F199" s="3">
-        <v>49498</v>
+        <v>195581</v>
       </c>
       <c r="G199" s="3">
-        <v>280</v>
+        <v>1327</v>
       </c>
       <c r="H199" s="3">
-        <v>3.56</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2">
-        <v>43982</v>
+        <v>43799</v>
       </c>
       <c r="B200" s="3">
-        <v>795.7</v>
+        <v>2311</v>
       </c>
       <c r="C200" s="3">
-        <v>289219</v>
+        <v>1042843</v>
       </c>
       <c r="D200" s="3">
-        <v>260348</v>
+        <v>934879</v>
       </c>
       <c r="E200" s="3">
-        <v>221892</v>
+        <v>831714</v>
       </c>
       <c r="F200" s="3">
-        <v>67005</v>
+        <v>209792</v>
       </c>
       <c r="G200" s="3">
-        <v>322</v>
+        <v>1337</v>
       </c>
       <c r="H200" s="3">
-        <v>3.63</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="B201" s="3">
-        <v>1025.7</v>
+        <v>2576.9</v>
       </c>
       <c r="C201" s="3">
-        <v>392777</v>
+        <v>1205961</v>
       </c>
       <c r="D201" s="3">
-        <v>352351</v>
+        <v>1060303</v>
       </c>
       <c r="E201" s="3">
-        <v>304201</v>
+        <v>971678</v>
       </c>
       <c r="F201" s="3">
-        <v>88173</v>
+        <v>231546</v>
       </c>
       <c r="G201" s="3">
-        <v>403</v>
+        <v>2737</v>
       </c>
       <c r="H201" s="3">
-        <v>3.83</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2">
-        <v>44043</v>
+        <v>43861</v>
       </c>
       <c r="B202" s="3">
-        <v>1236.5</v>
+        <v>192.7</v>
       </c>
       <c r="C202" s="3">
-        <v>485969</v>
+        <v>46373</v>
       </c>
       <c r="D202" s="3">
-        <v>436367</v>
+        <v>41756</v>
       </c>
       <c r="E202" s="3">
-        <v>377963</v>
+        <v>33453</v>
       </c>
       <c r="F202" s="3">
-        <v>107599</v>
+        <v>12749</v>
       </c>
       <c r="G202" s="3">
-        <v>407</v>
+        <v>171</v>
       </c>
       <c r="H202" s="3">
-        <v>3.93</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2">
-        <v>44074</v>
+        <v>43890</v>
       </c>
       <c r="B203" s="3">
-        <v>1455.1</v>
+        <v>223.8</v>
       </c>
       <c r="C203" s="3">
-        <v>595841</v>
+        <v>59705</v>
       </c>
       <c r="D203" s="3">
-        <v>537107</v>
+        <v>53237</v>
       </c>
       <c r="E203" s="3">
-        <v>466377</v>
+        <v>44557</v>
       </c>
       <c r="F203" s="3">
-        <v>128886</v>
+        <v>14977</v>
       </c>
       <c r="G203" s="3">
-        <v>578</v>
+        <v>171</v>
       </c>
       <c r="H203" s="3">
-        <v>4.09</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2">
-        <v>44104</v>
+        <v>43921</v>
       </c>
       <c r="B204" s="3">
-        <v>1711.6</v>
+        <v>367.2</v>
       </c>
       <c r="C204" s="3">
-        <v>733836</v>
+        <v>114040</v>
       </c>
       <c r="D204" s="3">
-        <v>662520</v>
+        <v>101540</v>
       </c>
       <c r="E204" s="3">
-        <v>578816</v>
+        <v>84761</v>
       </c>
       <c r="F204" s="3">
-        <v>154441</v>
+        <v>29072</v>
       </c>
       <c r="G204" s="3">
-        <v>579</v>
+        <v>207</v>
       </c>
       <c r="H204" s="3">
-        <v>4.29</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2">
-        <v>44135</v>
+        <v>43951</v>
       </c>
       <c r="B205" s="3">
-        <v>1969.9</v>
+        <v>576.1</v>
       </c>
       <c r="C205" s="3">
-        <v>901181</v>
+        <v>205033</v>
       </c>
       <c r="D205" s="3">
-        <v>817701</v>
+        <v>183739</v>
       </c>
       <c r="E205" s="3">
-        <v>719358</v>
+        <v>155255</v>
       </c>
       <c r="F205" s="3">
-        <v>181165</v>
+        <v>49498</v>
       </c>
       <c r="G205" s="3">
-        <v>658</v>
+        <v>280</v>
       </c>
       <c r="H205" s="3">
-        <v>4.57</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2">
-        <v>44165</v>
+        <v>43982</v>
       </c>
       <c r="B206" s="3">
-        <v>2247</v>
+        <v>795.7</v>
       </c>
       <c r="C206" s="3">
-        <v>1109074</v>
+        <v>289219</v>
       </c>
       <c r="D206" s="3">
-        <v>1011265</v>
+        <v>260348</v>
       </c>
       <c r="E206" s="3">
-        <v>894439</v>
+        <v>221892</v>
       </c>
       <c r="F206" s="3">
-        <v>213687</v>
+        <v>67005</v>
       </c>
       <c r="G206" s="3">
-        <v>948</v>
+        <v>322</v>
       </c>
       <c r="H206" s="3">
-        <v>4.9400000000000004</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="B207" s="3">
-        <v>2531.1</v>
+        <v>1025.7</v>
       </c>
       <c r="C207" s="3">
-        <v>1367315</v>
+        <v>392777</v>
       </c>
       <c r="D207" s="3">
-        <v>1246289</v>
+        <v>352351</v>
       </c>
       <c r="E207" s="3">
-        <v>1115123</v>
+        <v>304201</v>
       </c>
       <c r="F207" s="3">
-        <v>251010</v>
+        <v>88173</v>
       </c>
       <c r="G207" s="3">
-        <v>1182</v>
+        <v>403</v>
       </c>
       <c r="H207" s="3">
-        <v>5.4</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2">
-        <v>44227</v>
+        <v>44043</v>
       </c>
       <c r="B208" s="3">
-        <v>250.3</v>
+        <v>1236.5</v>
       </c>
       <c r="C208" s="3">
-        <v>179176</v>
+        <v>485969</v>
       </c>
       <c r="D208" s="3">
-        <v>171782</v>
+        <v>436367</v>
       </c>
       <c r="E208" s="3">
-        <v>150604</v>
+        <v>377963</v>
       </c>
       <c r="F208" s="3">
-        <v>28509</v>
+        <v>107599</v>
       </c>
       <c r="G208" s="3">
-        <v>63</v>
+        <v>407</v>
       </c>
       <c r="H208" s="3">
-        <v>7.16</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2">
-        <v>44255</v>
+        <v>44074</v>
       </c>
       <c r="B209" s="3">
-        <v>395.8</v>
+        <v>1455.1</v>
       </c>
       <c r="C209" s="3">
-        <v>288850</v>
+        <v>595841</v>
       </c>
       <c r="D209" s="3">
-        <v>277856</v>
+        <v>537107</v>
       </c>
       <c r="E209" s="3">
-        <v>242979</v>
+        <v>466377</v>
       </c>
       <c r="F209" s="3">
-        <v>45780</v>
+        <v>128886</v>
       </c>
       <c r="G209" s="3">
-        <v>91</v>
+        <v>578</v>
       </c>
       <c r="H209" s="3">
-        <v>7.3</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2">
-        <v>44286</v>
+        <v>44104</v>
       </c>
       <c r="B210" s="3">
-        <v>648.4</v>
+        <v>1711.6</v>
       </c>
       <c r="C210" s="3">
-        <v>514651</v>
+        <v>733836</v>
       </c>
       <c r="D210" s="3">
-        <v>489816</v>
+        <v>662520</v>
       </c>
       <c r="E210" s="3">
-        <v>432616</v>
+        <v>578816</v>
       </c>
       <c r="F210" s="3">
-        <v>81885</v>
+        <v>154441</v>
       </c>
       <c r="G210" s="3">
-        <v>150</v>
+        <v>579</v>
       </c>
       <c r="H210" s="3">
-        <v>7.94</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2">
-        <v>44316</v>
+        <v>44135</v>
       </c>
       <c r="B211" s="3">
-        <v>874.8</v>
+        <v>1969.9</v>
       </c>
       <c r="C211" s="3">
-        <v>731976</v>
+        <v>901181</v>
       </c>
       <c r="D211" s="3">
-        <v>693684</v>
+        <v>817701</v>
       </c>
       <c r="E211" s="3">
-        <v>614922</v>
+        <v>719358</v>
       </c>
       <c r="F211" s="3">
-        <v>116866</v>
+        <v>181165</v>
       </c>
       <c r="G211" s="3">
-        <v>188</v>
+        <v>658</v>
       </c>
       <c r="H211" s="3">
-        <v>8.3699999999999992</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2">
-        <v>44347</v>
+        <v>44165</v>
       </c>
       <c r="B212" s="3">
-        <v>1087.5</v>
+        <v>2247</v>
       </c>
       <c r="C212" s="3">
-        <v>949724</v>
+        <v>1109074</v>
       </c>
       <c r="D212" s="3">
-        <v>898175</v>
+        <v>1011265</v>
       </c>
       <c r="E212" s="3">
-        <v>793509</v>
+        <v>894439</v>
       </c>
       <c r="F212" s="3">
-        <v>156008</v>
+        <v>213687</v>
       </c>
       <c r="G212" s="3">
-        <v>207</v>
+        <v>948</v>
       </c>
       <c r="H212" s="3">
-        <v>8.73</v>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="B213" s="3">
-        <v>1289.0999999999999</v>
+        <v>2531.1</v>
       </c>
       <c r="C213" s="3">
-        <v>1205675</v>
+        <v>1367315</v>
       </c>
       <c r="D213" s="3">
-        <v>1139786</v>
+        <v>1246289</v>
       </c>
       <c r="E213" s="3">
-        <v>1004982</v>
+        <v>1115123</v>
       </c>
       <c r="F213" s="3">
-        <v>200214</v>
+        <v>251010</v>
       </c>
       <c r="G213" s="3">
-        <v>479</v>
+        <v>1182</v>
       </c>
       <c r="H213" s="3">
-        <v>9.35</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2">
-        <v>44408</v>
+        <v>44227</v>
       </c>
       <c r="B214" s="3">
-        <v>1475.6</v>
+        <v>250.3</v>
       </c>
       <c r="C214" s="3">
-        <v>1478109</v>
+        <v>179176</v>
       </c>
       <c r="D214" s="3">
-        <v>1397546</v>
+        <v>171782</v>
       </c>
       <c r="E214" s="3">
-        <v>1226885</v>
+        <v>150604</v>
       </c>
       <c r="F214" s="3">
-        <v>250549</v>
+        <v>28509</v>
       </c>
       <c r="G214" s="3">
-        <v>675</v>
+        <v>63</v>
       </c>
       <c r="H214" s="3">
-        <v>10.02</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2">
-        <v>44439</v>
+        <v>44255</v>
       </c>
       <c r="B215" s="3">
-        <v>1655.6</v>
+        <v>395.8</v>
       </c>
       <c r="C215" s="3">
-        <v>1799149</v>
+        <v>288850</v>
       </c>
       <c r="D215" s="3">
-        <v>1704169</v>
+        <v>277856</v>
       </c>
       <c r="E215" s="3">
-        <v>1492100</v>
+        <v>242979</v>
       </c>
       <c r="F215" s="3">
-        <v>306316</v>
+        <v>45780</v>
       </c>
       <c r="G215" s="3">
-        <v>733</v>
+        <v>91</v>
       </c>
       <c r="H215" s="3">
-        <v>10.87</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2">
-        <v>44469</v>
+        <v>44286</v>
       </c>
       <c r="B216" s="3">
-        <v>1862.3</v>
+        <v>648.4</v>
       </c>
       <c r="C216" s="3">
-        <v>2156623</v>
+        <v>514651</v>
       </c>
       <c r="D216" s="3">
-        <v>2045391</v>
+        <v>489816</v>
       </c>
       <c r="E216" s="3">
-        <v>1788587</v>
+        <v>432616</v>
       </c>
       <c r="F216" s="3">
-        <v>367130</v>
+        <v>81885</v>
       </c>
       <c r="G216" s="3">
-        <v>906</v>
+        <v>150</v>
       </c>
       <c r="H216" s="3">
-        <v>11.58</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2">
-        <v>44500</v>
+        <v>44316</v>
       </c>
       <c r="B217" s="3">
-        <v>2097</v>
+        <v>874.8</v>
       </c>
       <c r="C217" s="3">
-        <v>2542495</v>
+        <v>731976</v>
       </c>
       <c r="D217" s="3">
-        <v>2412995</v>
+        <v>693684</v>
       </c>
       <c r="E217" s="3">
-        <v>2105025</v>
+        <v>614922</v>
       </c>
       <c r="F217" s="3">
-        <v>436517</v>
+        <v>116866</v>
       </c>
       <c r="G217" s="3">
-        <v>953</v>
+        <v>188</v>
       </c>
       <c r="H217" s="3">
-        <v>12.12</v>
+        <v>8.3699999999999992</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2">
-        <v>44530</v>
+        <v>44347</v>
       </c>
       <c r="B218" s="3">
-        <v>2348.9</v>
+        <v>1087.5</v>
       </c>
       <c r="C218" s="3">
-        <v>2989534</v>
+        <v>949724</v>
       </c>
       <c r="D218" s="3">
-        <v>2837311</v>
+        <v>898175</v>
       </c>
       <c r="E218" s="3">
-        <v>2466267</v>
+        <v>793509</v>
       </c>
       <c r="F218" s="3">
-        <v>522167</v>
+        <v>156008</v>
       </c>
       <c r="G218" s="3">
-        <v>1100</v>
+        <v>207</v>
       </c>
       <c r="H218" s="3">
-        <v>12.73</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="B219" s="3">
-        <v>2627.5</v>
+        <v>1289.0999999999999</v>
       </c>
       <c r="C219" s="3">
-        <v>3520545</v>
+        <v>1205675</v>
       </c>
       <c r="D219" s="3">
-        <v>3334170</v>
+        <v>1139786</v>
       </c>
       <c r="E219" s="3">
-        <v>2915559</v>
+        <v>1004982</v>
       </c>
       <c r="F219" s="3">
-        <v>603390</v>
+        <v>200214</v>
       </c>
       <c r="G219" s="3">
-        <v>1596</v>
+        <v>479</v>
       </c>
       <c r="H219" s="3">
-        <v>13.4</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2">
-        <v>44592</v>
+        <v>44408</v>
       </c>
       <c r="B220" s="3">
-        <v>253.1</v>
+        <v>1475.6</v>
       </c>
       <c r="C220" s="3">
-        <v>431436</v>
+        <v>1478109</v>
       </c>
       <c r="D220" s="3">
-        <v>419106</v>
+        <v>1397546</v>
       </c>
       <c r="E220" s="3">
-        <v>346312</v>
+        <v>1226885</v>
       </c>
       <c r="F220" s="3">
-        <v>84932</v>
+        <v>250549</v>
       </c>
       <c r="G220" s="3">
-        <v>192</v>
+        <v>675</v>
       </c>
       <c r="H220" s="3">
-        <v>17.05</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2">
-        <v>44620</v>
+        <v>44439</v>
       </c>
       <c r="B221" s="3">
-        <v>426.8</v>
+        <v>1655.6</v>
       </c>
       <c r="C221" s="3">
-        <v>765033</v>
+        <v>1799149</v>
       </c>
       <c r="D221" s="3">
-        <v>740282</v>
+        <v>1704169</v>
       </c>
       <c r="E221" s="3">
-        <v>604306</v>
+        <v>1492100</v>
       </c>
       <c r="F221" s="3">
-        <v>160356</v>
+        <v>306316</v>
       </c>
       <c r="G221" s="3">
-        <v>371</v>
+        <v>733</v>
       </c>
       <c r="H221" s="3">
-        <v>17.93</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2">
-        <v>44651</v>
+        <v>44469</v>
       </c>
       <c r="B222" s="3">
-        <v>650.9</v>
+        <v>1862.3</v>
       </c>
       <c r="C222" s="3">
-        <v>1256675</v>
+        <v>2156623</v>
       </c>
       <c r="D222" s="3">
-        <v>1207462</v>
+        <v>2045391</v>
       </c>
       <c r="E222" s="3">
-        <v>1007357</v>
+        <v>1788587</v>
       </c>
       <c r="F222" s="3">
-        <v>248580</v>
+        <v>367130</v>
       </c>
       <c r="G222" s="3">
-        <v>738</v>
+        <v>906</v>
       </c>
       <c r="H222" s="3">
-        <v>19.309999999999999</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2">
-        <v>44681</v>
+        <v>44500</v>
       </c>
       <c r="B223" s="3">
-        <v>769.1</v>
+        <v>2097</v>
       </c>
       <c r="C223" s="3">
-        <v>1555933</v>
+        <v>2542495</v>
       </c>
       <c r="D223" s="3">
-        <v>1487860</v>
+        <v>2412995</v>
       </c>
       <c r="E223" s="3">
-        <v>1238833</v>
+        <v>2105025</v>
       </c>
       <c r="F223" s="3">
-        <v>316268</v>
+        <v>436517</v>
       </c>
       <c r="G223" s="3">
-        <v>832</v>
+        <v>953</v>
       </c>
       <c r="H223" s="3">
-        <v>20.23</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2">
-        <v>44712</v>
+        <v>44530</v>
       </c>
       <c r="B224" s="3">
-        <v>955.5</v>
+        <v>2348.9</v>
       </c>
       <c r="C224" s="3">
-        <v>2003112</v>
+        <v>2989534</v>
       </c>
       <c r="D224" s="3">
-        <v>1914734</v>
+        <v>2837311</v>
       </c>
       <c r="E224" s="3">
-        <v>1586088</v>
+        <v>2466267</v>
       </c>
       <c r="F224" s="3">
-        <v>416089</v>
+        <v>522167</v>
       </c>
       <c r="G224" s="3">
-        <v>935</v>
+        <v>1100</v>
       </c>
       <c r="H224" s="3">
-        <v>20.96</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="B225" s="3">
-        <v>1205.7</v>
+        <v>2627.5</v>
       </c>
       <c r="C225" s="3">
-        <v>2599543</v>
+        <v>3520545</v>
       </c>
       <c r="D225" s="3">
-        <v>2483459</v>
+        <v>3334170</v>
       </c>
       <c r="E225" s="3">
-        <v>2061783</v>
+        <v>2915559</v>
       </c>
       <c r="F225" s="3">
-        <v>536370</v>
+        <v>603390</v>
       </c>
       <c r="G225" s="3">
-        <v>1390</v>
+        <v>1596</v>
       </c>
       <c r="H225" s="3">
-        <v>21.56</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2">
-        <v>44773</v>
+        <v>44592</v>
       </c>
       <c r="B226" s="3">
-        <v>1447.7</v>
+        <v>253.1</v>
       </c>
       <c r="C226" s="3">
-        <v>3193524</v>
+        <v>431436</v>
       </c>
       <c r="D226" s="3">
-        <v>3051149</v>
+        <v>419106</v>
       </c>
       <c r="E226" s="3">
-        <v>2517801</v>
+        <v>346312</v>
       </c>
       <c r="F226" s="3">
-        <v>674090</v>
+        <v>84932</v>
       </c>
       <c r="G226" s="3">
-        <v>1633</v>
+        <v>192</v>
       </c>
       <c r="H226" s="3">
-        <v>22.06</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2">
-        <v>44804</v>
+        <v>44620</v>
       </c>
       <c r="B227" s="3">
-        <v>1686</v>
+        <v>426.8</v>
       </c>
       <c r="C227" s="3">
-        <v>3859855</v>
+        <v>765033</v>
       </c>
       <c r="D227" s="3">
-        <v>3688268</v>
+        <v>740282</v>
       </c>
       <c r="E227" s="3">
-        <v>3039590</v>
+        <v>604306</v>
       </c>
       <c r="F227" s="3">
-        <v>818377</v>
+        <v>160356</v>
       </c>
       <c r="G227" s="3">
-        <v>1888</v>
+        <v>371</v>
       </c>
       <c r="H227" s="3">
-        <v>22.89</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2">
-        <v>44834</v>
+        <v>44651</v>
       </c>
       <c r="B228" s="3">
-        <v>1947</v>
+        <v>650.9</v>
       </c>
       <c r="C228" s="3">
-        <v>4566817</v>
+        <v>1256675</v>
       </c>
       <c r="D228" s="3">
-        <v>4363108</v>
+        <v>1207462</v>
       </c>
       <c r="E228" s="3">
-        <v>3577570</v>
+        <v>1007357</v>
       </c>
       <c r="F228" s="3">
-        <v>987157</v>
+        <v>248580</v>
       </c>
       <c r="G228" s="3">
-        <v>2090</v>
+        <v>738</v>
       </c>
       <c r="H228" s="3">
-        <v>23.46</v>
+        <v>19.309999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2">
-        <v>44865</v>
+        <v>44681</v>
       </c>
       <c r="B229" s="3">
-        <v>2197.5</v>
+        <v>769.1</v>
       </c>
       <c r="C229" s="3">
-        <v>5280414</v>
+        <v>1555933</v>
       </c>
       <c r="D229" s="3">
-        <v>5043327</v>
+        <v>1487860</v>
       </c>
       <c r="E229" s="3">
-        <v>4119019</v>
+        <v>1238833</v>
       </c>
       <c r="F229" s="3">
-        <v>1159002</v>
+        <v>316268</v>
       </c>
       <c r="G229" s="3">
-        <v>2393</v>
+        <v>832</v>
       </c>
       <c r="H229" s="3">
-        <v>24.03</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2">
-        <v>44895</v>
+        <v>44712</v>
       </c>
       <c r="B230" s="3">
-        <v>2430.1999999999998</v>
+        <v>955.5</v>
       </c>
       <c r="C230" s="3">
-        <v>6066756</v>
+        <v>2003112</v>
       </c>
       <c r="D230" s="3">
-        <v>5785999</v>
+        <v>1914734</v>
       </c>
       <c r="E230" s="3">
-        <v>4734438</v>
+        <v>1586088</v>
       </c>
       <c r="F230" s="3">
-        <v>1329558</v>
+        <v>416089</v>
       </c>
       <c r="G230" s="3">
-        <v>2760</v>
+        <v>935</v>
       </c>
       <c r="H230" s="3">
-        <v>24.96</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="B231" s="3">
-        <v>2686.4</v>
+        <v>1205.7</v>
       </c>
       <c r="C231" s="3">
-        <v>6886647</v>
+        <v>2599543</v>
       </c>
       <c r="D231" s="3">
-        <v>6548482</v>
+        <v>2483459</v>
       </c>
       <c r="E231" s="3">
-        <v>5364871</v>
+        <v>2061783</v>
       </c>
       <c r="F231" s="3">
-        <v>1518379</v>
+        <v>536370</v>
       </c>
       <c r="G231" s="3">
-        <v>3397</v>
+        <v>1390</v>
       </c>
       <c r="H231" s="3">
-        <v>25.64</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2">
-        <v>44957</v>
+        <v>44773</v>
       </c>
       <c r="B232" s="3">
-        <v>164.9</v>
+        <v>1447.7</v>
       </c>
       <c r="C232" s="3">
-        <v>407845</v>
+        <v>3193524</v>
       </c>
       <c r="D232" s="3">
-        <v>392613</v>
+        <v>3051149</v>
       </c>
       <c r="E232" s="3">
-        <v>286692</v>
+        <v>2517801</v>
       </c>
       <c r="F232" s="3">
-        <v>120991</v>
+        <v>674090</v>
       </c>
       <c r="G232" s="3">
-        <v>162</v>
+        <v>1633</v>
       </c>
       <c r="H232" s="3">
-        <v>24.73</v>
+        <v>22.06</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2">
-        <v>44985</v>
+        <v>44804</v>
       </c>
       <c r="B233" s="3">
-        <v>362.5</v>
+        <v>1686</v>
       </c>
       <c r="C233" s="3">
-        <v>932874</v>
+        <v>3859855</v>
       </c>
       <c r="D233" s="3">
-        <v>893731</v>
+        <v>3688268</v>
       </c>
       <c r="E233" s="3">
-        <v>662375</v>
+        <v>3039590</v>
       </c>
       <c r="F233" s="3">
-        <v>270297</v>
+        <v>818377</v>
       </c>
       <c r="G233" s="3">
-        <v>202</v>
+        <v>1888</v>
       </c>
       <c r="H233" s="3">
-        <v>25.73</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2">
-        <v>45016</v>
+        <v>44834</v>
       </c>
       <c r="B234" s="3">
-        <v>607.6</v>
+        <v>1947</v>
       </c>
       <c r="C234" s="3">
-        <v>1585685</v>
+        <v>4566817</v>
       </c>
       <c r="D234" s="3">
-        <v>1511726</v>
+        <v>4363108</v>
       </c>
       <c r="E234" s="3">
-        <v>1152145</v>
+        <v>3577570</v>
       </c>
       <c r="F234" s="3">
-        <v>432852</v>
+        <v>987157</v>
       </c>
       <c r="G234" s="3">
-        <v>688</v>
+        <v>2090</v>
       </c>
       <c r="H234" s="3">
-        <v>26.1</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2">
-        <v>45046</v>
+        <v>44865</v>
       </c>
       <c r="B235" s="3">
-        <v>823.5</v>
+        <v>2197.5</v>
       </c>
       <c r="C235" s="3">
-        <v>2222487</v>
+        <v>5280414</v>
       </c>
       <c r="D235" s="3">
-        <v>2120484</v>
+        <v>5043327</v>
       </c>
       <c r="E235" s="3">
-        <v>1623166</v>
+        <v>4119019</v>
       </c>
       <c r="F235" s="3">
-        <v>598330</v>
+        <v>1159002</v>
       </c>
       <c r="G235" s="3">
-        <v>991</v>
+        <v>2393</v>
       </c>
       <c r="H235" s="3">
-        <v>26.99</v>
+        <v>24.03</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2">
-        <v>45077</v>
+        <v>44895</v>
       </c>
       <c r="B236" s="3">
-        <v>1061.7</v>
+        <v>2430.1999999999998</v>
       </c>
       <c r="C236" s="3">
-        <v>2940329</v>
+        <v>6066756</v>
       </c>
       <c r="D236" s="3">
-        <v>2809801</v>
+        <v>5785999</v>
       </c>
       <c r="E236" s="3">
-        <v>2146134</v>
+        <v>4734438</v>
       </c>
       <c r="F236" s="3">
-        <v>792739</v>
+        <v>1329558</v>
       </c>
       <c r="G236" s="3">
-        <v>1456</v>
+        <v>2760</v>
       </c>
       <c r="H236" s="3">
-        <v>27.69</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="B237" s="3">
-        <v>1323.9</v>
+        <v>2686.4</v>
       </c>
       <c r="C237" s="3">
-        <v>3746585</v>
+        <v>6886647</v>
       </c>
       <c r="D237" s="3">
-        <v>3577142</v>
+        <v>6548482</v>
       </c>
       <c r="E237" s="3">
-        <v>2719268</v>
+        <v>5364871</v>
       </c>
       <c r="F237" s="3">
-        <v>1024906</v>
+        <v>1518379</v>
       </c>
       <c r="G237" s="3">
-        <v>2411</v>
+        <v>3397</v>
       </c>
       <c r="H237" s="3">
-        <v>28.3</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2">
-        <v>45138</v>
+        <v>44957</v>
       </c>
       <c r="B238" s="3">
-        <v>1562.6</v>
+        <v>164.9</v>
       </c>
       <c r="C238" s="3">
-        <v>4525844</v>
+        <v>407845</v>
       </c>
       <c r="D238" s="3">
-        <v>4322673</v>
+        <v>392613</v>
       </c>
       <c r="E238" s="3">
-        <v>3259786</v>
+        <v>286692</v>
       </c>
       <c r="F238" s="3">
-        <v>1263379</v>
+        <v>120991</v>
       </c>
       <c r="G238" s="3">
-        <v>2679</v>
+        <v>162</v>
       </c>
       <c r="H238" s="3">
-        <v>28.96</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="B239" s="3">
-        <v>1821</v>
+        <v>362.5</v>
       </c>
       <c r="C239" s="3">
-        <v>5373851</v>
+        <v>932874</v>
       </c>
       <c r="D239" s="3">
-        <v>5131903</v>
+        <v>893731</v>
       </c>
       <c r="E239" s="3">
-        <v>3841772</v>
+        <v>662375</v>
       </c>
       <c r="F239" s="3">
-        <v>1529223</v>
+        <v>270297</v>
       </c>
       <c r="G239" s="3">
-        <v>2856</v>
+        <v>202</v>
       </c>
       <c r="H239" s="3">
-        <v>29.51</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2">
-        <v>45199</v>
+        <v>45016</v>
       </c>
       <c r="B240" s="3">
-        <v>2106.9</v>
+        <v>607.6</v>
       </c>
       <c r="C240" s="3">
-        <v>6278019</v>
+        <v>1585685</v>
       </c>
       <c r="D240" s="3">
-        <v>5990208</v>
+        <v>1511726</v>
       </c>
       <c r="E240" s="3">
-        <v>4468484</v>
+        <v>1152145</v>
       </c>
       <c r="F240" s="3">
-        <v>1806665</v>
+        <v>432852</v>
       </c>
       <c r="G240" s="3">
-        <v>2870</v>
+        <v>688</v>
       </c>
       <c r="H240" s="3">
-        <v>29.8</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2">
-        <v>45230</v>
+        <v>45046</v>
       </c>
       <c r="B241" s="3">
-        <v>2396.6999999999998</v>
+        <v>823.5</v>
       </c>
       <c r="C241" s="3">
-        <v>7279883</v>
+        <v>2222487</v>
       </c>
       <c r="D241" s="3">
-        <v>6945978</v>
+        <v>2120484</v>
       </c>
       <c r="E241" s="3">
-        <v>5159910</v>
+        <v>1623166</v>
       </c>
       <c r="F241" s="3">
-        <v>2116289</v>
+        <v>598330</v>
       </c>
       <c r="G241" s="3">
-        <v>3684</v>
+        <v>991</v>
       </c>
       <c r="H241" s="3">
-        <v>30.37</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2">
-        <v>45260</v>
+        <v>45077</v>
       </c>
       <c r="B242" s="3">
-        <v>2693.8</v>
+        <v>1061.7</v>
       </c>
       <c r="C242" s="3">
-        <v>8303685</v>
+        <v>2940329</v>
       </c>
       <c r="D242" s="3">
-        <v>7919991</v>
+        <v>2809801</v>
       </c>
       <c r="E242" s="3">
-        <v>5859885</v>
+        <v>2146134</v>
       </c>
       <c r="F242" s="3">
-        <v>2439469</v>
+        <v>792739</v>
       </c>
       <c r="G242" s="3">
-        <v>4331</v>
+        <v>1456</v>
       </c>
       <c r="H242" s="3">
-        <v>30.83</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2">
-        <v>45291</v>
+        <v>45107</v>
       </c>
       <c r="B243" s="3">
-        <v>3009.4</v>
+        <v>1323.9</v>
       </c>
       <c r="C243" s="3">
-        <v>9495236</v>
+        <v>3746585</v>
       </c>
       <c r="D243" s="3">
-        <v>9047861</v>
+        <v>3577142</v>
       </c>
       <c r="E243" s="3">
-        <v>6685176</v>
+        <v>2719268</v>
       </c>
       <c r="F243" s="3">
-        <v>2804217</v>
+        <v>1024906</v>
       </c>
       <c r="G243" s="3">
-        <v>5843</v>
+        <v>2411</v>
       </c>
       <c r="H243" s="3">
-        <v>31.55</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2">
-        <v>45322</v>
+        <v>45138</v>
       </c>
       <c r="B244" s="3">
-        <v>243.9</v>
+        <v>1562.6</v>
       </c>
       <c r="C244" s="3">
-        <v>729317</v>
+        <v>4525844</v>
       </c>
       <c r="D244" s="3">
-        <v>698901</v>
+        <v>4322673</v>
       </c>
       <c r="E244" s="3">
-        <v>444647</v>
+        <v>3259786</v>
       </c>
       <c r="F244" s="3">
-        <v>284292</v>
+        <v>1263379</v>
       </c>
       <c r="G244" s="3">
-        <v>378</v>
+        <v>2679</v>
       </c>
       <c r="H244" s="3">
-        <v>29.9</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2">
-        <v>45351</v>
+        <v>45169</v>
       </c>
       <c r="B245" s="3">
-        <v>402.6</v>
+        <v>1821</v>
       </c>
       <c r="C245" s="3">
-        <v>1207433</v>
+        <v>5373851</v>
       </c>
       <c r="D245" s="3">
-        <v>1151580</v>
+        <v>5131903</v>
       </c>
       <c r="E245" s="3">
-        <v>739840</v>
+        <v>3841772</v>
       </c>
       <c r="F245" s="3">
-        <v>467027</v>
+        <v>1529223</v>
       </c>
       <c r="G245" s="3">
-        <v>566</v>
+        <v>2856</v>
       </c>
       <c r="H245" s="3">
-        <v>29.99</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2">
-        <v>45382</v>
+        <v>45199</v>
       </c>
       <c r="B246" s="3">
-        <v>672</v>
+        <v>2106.9</v>
       </c>
       <c r="C246" s="3">
-        <v>2090308</v>
+        <v>6278019</v>
       </c>
       <c r="D246" s="3">
-        <v>1983296</v>
+        <v>5990208</v>
       </c>
       <c r="E246" s="3">
-        <v>1305383</v>
+        <v>4468484</v>
       </c>
       <c r="F246" s="3">
-        <v>784136</v>
+        <v>1806665</v>
       </c>
       <c r="G246" s="3">
-        <v>789</v>
+        <v>2870</v>
       </c>
       <c r="H246" s="3">
-        <v>31.11</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2">
-        <v>45412</v>
+        <v>45230</v>
       </c>
       <c r="B247" s="3">
-        <v>907.9</v>
+        <v>2396.6999999999998</v>
       </c>
       <c r="C247" s="3">
-        <v>2940423</v>
+        <v>7279883</v>
       </c>
       <c r="D247" s="3">
-        <v>2789572</v>
+        <v>6945978</v>
       </c>
       <c r="E247" s="3">
-        <v>1824211</v>
+        <v>5159910</v>
       </c>
       <c r="F247" s="3">
-        <v>1115138</v>
+        <v>2116289</v>
       </c>
       <c r="G247" s="3">
-        <v>1074</v>
+        <v>3684</v>
       </c>
       <c r="H247" s="3">
-        <v>32.39</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2">
-        <v>45443</v>
+        <v>45260</v>
       </c>
       <c r="B248" s="3">
-        <v>1149.5999999999999</v>
+        <v>2693.8</v>
       </c>
       <c r="C248" s="3">
-        <v>3895318</v>
+        <v>8303685</v>
       </c>
       <c r="D248" s="3">
-        <v>3700437</v>
+        <v>7919991</v>
       </c>
       <c r="E248" s="3">
-        <v>2407428</v>
+        <v>5859885</v>
       </c>
       <c r="F248" s="3">
-        <v>1486371</v>
+        <v>2439469</v>
       </c>
       <c r="G248" s="3">
-        <v>1519</v>
+        <v>4331</v>
       </c>
       <c r="H248" s="3">
-        <v>33.880000000000003</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2">
-        <v>45473</v>
+        <v>45291</v>
       </c>
       <c r="B249" s="3">
-        <v>1404.7</v>
+        <v>3009.4</v>
       </c>
       <c r="C249" s="3">
-        <v>4944073</v>
+        <v>9495236</v>
       </c>
       <c r="D249" s="3">
-        <v>4702401</v>
+        <v>9047861</v>
       </c>
       <c r="E249" s="3">
-        <v>3019217</v>
+        <v>6685176</v>
       </c>
       <c r="F249" s="3">
-        <v>1922273</v>
+        <v>2804217</v>
       </c>
       <c r="G249" s="3">
-        <v>2583</v>
+        <v>5843</v>
       </c>
       <c r="H249" s="3">
-        <v>35.200000000000003</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2">
-        <v>45504</v>
+        <v>45322</v>
       </c>
       <c r="B250" s="3">
-        <v>1631</v>
+        <v>243.9</v>
       </c>
       <c r="C250" s="3">
-        <v>5934471</v>
+        <v>729317</v>
       </c>
       <c r="D250" s="3">
-        <v>5655323</v>
+        <v>698901</v>
       </c>
       <c r="E250" s="3">
-        <v>3570342</v>
+        <v>444647</v>
       </c>
       <c r="F250" s="3">
-        <v>2360767</v>
+        <v>284292</v>
       </c>
       <c r="G250" s="3">
-        <v>3362</v>
+        <v>378</v>
       </c>
       <c r="H250" s="3">
-        <v>36.39</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2">
-        <v>45535</v>
+        <v>45351</v>
       </c>
       <c r="B251" s="3">
-        <v>1876.6</v>
+        <v>402.6</v>
       </c>
       <c r="C251" s="3">
-        <v>7036876</v>
+        <v>1207433</v>
       </c>
       <c r="D251" s="3">
-        <v>6712433</v>
+        <v>1151580</v>
       </c>
       <c r="E251" s="3">
-        <v>4216280</v>
+        <v>739840</v>
       </c>
       <c r="F251" s="3">
-        <v>2816673</v>
+        <v>467027</v>
       </c>
       <c r="G251" s="3">
-        <v>3923</v>
+        <v>566</v>
       </c>
       <c r="H251" s="3">
-        <v>37.5</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2">
-        <v>45565</v>
+        <v>45382</v>
       </c>
       <c r="B252" s="3">
-        <v>2157.1</v>
+        <v>672</v>
       </c>
       <c r="C252" s="3">
-        <v>8320135</v>
+        <v>2090308</v>
       </c>
       <c r="D252" s="3">
-        <v>7943599</v>
+        <v>1983296</v>
       </c>
       <c r="E252" s="3">
-        <v>4988166</v>
+        <v>1305383</v>
       </c>
       <c r="F252" s="3">
-        <v>3327836</v>
+        <v>784136</v>
       </c>
       <c r="G252" s="3">
-        <v>4133</v>
+        <v>789</v>
       </c>
       <c r="H252" s="3">
-        <v>38.57</v>
+        <v>31.11</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2">
-        <v>45596</v>
+        <v>45412</v>
       </c>
       <c r="B253" s="3">
-        <v>2462.4</v>
+        <v>907.9</v>
       </c>
       <c r="C253" s="3">
-        <v>9750246</v>
+        <v>2940423</v>
       </c>
       <c r="D253" s="3">
-        <v>9314558</v>
+        <v>2789572</v>
       </c>
       <c r="E253" s="3">
-        <v>5830407</v>
+        <v>1824211</v>
       </c>
       <c r="F253" s="3">
-        <v>3915144</v>
+        <v>1115138</v>
       </c>
       <c r="G253" s="3">
-        <v>4695</v>
+        <v>1074</v>
       </c>
       <c r="H253" s="3">
-        <v>39.6</v>
+        <v>32.39</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1149.5999999999999</v>
+      </c>
+      <c r="C254" s="3">
+        <v>3895318</v>
+      </c>
+      <c r="D254" s="3">
+        <v>3700437</v>
+      </c>
+      <c r="E254" s="3">
+        <v>2407428</v>
+      </c>
+      <c r="F254" s="3">
+        <v>1486371</v>
+      </c>
+      <c r="G254" s="3">
+        <v>1519</v>
+      </c>
+      <c r="H254" s="3">
+        <v>33.880000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1404.7</v>
+      </c>
+      <c r="C255" s="3">
+        <v>4944073</v>
+      </c>
+      <c r="D255" s="3">
+        <v>4702401</v>
+      </c>
+      <c r="E255" s="3">
+        <v>3019217</v>
+      </c>
+      <c r="F255" s="3">
+        <v>1922273</v>
+      </c>
+      <c r="G255" s="3">
+        <v>2583</v>
+      </c>
+      <c r="H255" s="3">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1631</v>
+      </c>
+      <c r="C256" s="3">
+        <v>5934471</v>
+      </c>
+      <c r="D256" s="3">
+        <v>5655323</v>
+      </c>
+      <c r="E256" s="3">
+        <v>3570342</v>
+      </c>
+      <c r="F256" s="3">
+        <v>2360767</v>
+      </c>
+      <c r="G256" s="3">
+        <v>3362</v>
+      </c>
+      <c r="H256" s="3">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1876.6</v>
+      </c>
+      <c r="C257" s="3">
+        <v>7036876</v>
+      </c>
+      <c r="D257" s="3">
+        <v>6712433</v>
+      </c>
+      <c r="E257" s="3">
+        <v>4216280</v>
+      </c>
+      <c r="F257" s="3">
+        <v>2816673</v>
+      </c>
+      <c r="G257" s="3">
+        <v>3923</v>
+      </c>
+      <c r="H257" s="3">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B258" s="3">
+        <v>2157.1</v>
+      </c>
+      <c r="C258" s="3">
+        <v>8320135</v>
+      </c>
+      <c r="D258" s="3">
+        <v>7943599</v>
+      </c>
+      <c r="E258" s="3">
+        <v>4988166</v>
+      </c>
+      <c r="F258" s="3">
+        <v>3327836</v>
+      </c>
+      <c r="G258" s="3">
+        <v>4133</v>
+      </c>
+      <c r="H258" s="3">
+        <v>38.57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B259" s="3">
+        <v>2462.4</v>
+      </c>
+      <c r="C259" s="3">
+        <v>9750246</v>
+      </c>
+      <c r="D259" s="3">
+        <v>9314558</v>
+      </c>
+      <c r="E259" s="3">
+        <v>5830407</v>
+      </c>
+      <c r="F259" s="3">
+        <v>3915144</v>
+      </c>
+      <c r="G259" s="3">
+        <v>4695</v>
+      </c>
+      <c r="H259" s="3">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="2">
         <v>45626</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B260" s="3">
         <v>2794</v>
       </c>
-      <c r="C254" s="3">
-        <v>11262000</v>
-      </c>
-      <c r="D254" s="3">
-        <v>0</v>
-      </c>
-      <c r="E254" s="3">
-        <v>6738000</v>
-      </c>
-      <c r="F254" s="3">
-        <v>4519000</v>
-      </c>
-      <c r="G254" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H254" s="3">
+      <c r="C260" s="3">
+        <v>11261930</v>
+      </c>
+      <c r="D260" s="3">
+        <v>10764374</v>
+      </c>
+      <c r="E260" s="3">
+        <v>6738193</v>
+      </c>
+      <c r="F260" s="3">
+        <v>4518899</v>
+      </c>
+      <c r="G260" s="3">
+        <v>4838</v>
+      </c>
+      <c r="H260" s="3">
         <v>40.31</v>
       </c>
     </row>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2010004-4365-40DD-8582-77335306D7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A559F0E-B9F3-4AA7-8A82-AF081D589524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -143,13 +143,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
     <t>2025-01-06</t>
   </si>
   <si>
-    <t>2024-12-15</t>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
   </si>
 </sst>
 </file>
@@ -570,19 +570,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -749,22 +749,22 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -7320,6 +7320,32 @@
       </c>
       <c r="H260" s="3">
         <v>40.31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B261" s="3">
+        <v>3143.6</v>
+      </c>
+      <c r="C261" s="3">
+        <v>12865000</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+      <c r="E261" s="3">
+        <v>7719000</v>
+      </c>
+      <c r="F261" s="3">
+        <v>5141000</v>
+      </c>
+      <c r="G261" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H261" s="3">
+        <v>40.92</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A559F0E-B9F3-4AA7-8A82-AF081D589524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A4F44-C081-4E21-9167-0E62DDC997D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Sales_Vehicle_YTD" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Country</t>
   </si>
@@ -143,13 +143,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
     <t>2025-01-13</t>
   </si>
   <si>
-    <t>2025-01-15</t>
+    <t>2025-01-20</t>
   </si>
 </sst>
 </file>
@@ -576,13 +573,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -749,25 +746,25 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7330,22 +7327,22 @@
         <v>3143.6</v>
       </c>
       <c r="C261" s="3">
-        <v>12865000</v>
+        <v>12865872</v>
       </c>
       <c r="D261" s="3">
-        <v>0</v>
+        <v>12289659</v>
       </c>
       <c r="E261" s="3">
-        <v>7719000</v>
+        <v>7719363</v>
       </c>
       <c r="F261" s="3">
-        <v>5141000</v>
+        <v>5141403</v>
       </c>
       <c r="G261" s="3">
-        <v>5000</v>
+        <v>5106</v>
       </c>
       <c r="H261" s="3">
-        <v>40.92</v>
+        <v>40.93</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A4F44-C081-4E21-9167-0E62DDC997D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0915332-67D2-4F01-9EF0-48E00CE907F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,10 +143,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2025-01-13</t>
+    <t>2025-01-20</t>
   </si>
   <si>
-    <t>2025-01-20</t>
+    <t>2025-02-17</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -746,25 +746,25 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7343,6 +7343,32 @@
       </c>
       <c r="H261" s="3">
         <v>40.93</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B262" s="3">
+        <v>242.3</v>
+      </c>
+      <c r="C262" s="3">
+        <v>0</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+      <c r="E262" s="3">
+        <v>0</v>
+      </c>
+      <c r="F262" s="3">
+        <v>0</v>
+      </c>
+      <c r="G262" s="3">
+        <v>0</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0915332-67D2-4F01-9EF0-48E00CE907F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122C034-0E0C-4472-97C0-9A16E62F8819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Country</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
   </si>
 </sst>
 </file>
@@ -749,22 +752,22 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7353,22 +7356,22 @@
         <v>242.3</v>
       </c>
       <c r="C262" s="3">
-        <v>0</v>
+        <v>944000</v>
       </c>
       <c r="D262" s="3">
         <v>0</v>
       </c>
       <c r="E262" s="3">
-        <v>0</v>
+        <v>574000</v>
       </c>
       <c r="F262" s="3">
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="G262" s="3">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="H262" s="3">
-        <v>0</v>
+        <v>38.950000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_Sales_Vehicle_YTD.xlsx
+++ b/inst/extdata/China_Sales_Vehicle_YTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122C034-0E0C-4472-97C0-9A16E62F8819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61CED0-ABCF-4996-86D6-87C12576E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,13 +143,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
     <t>2025-02-17</t>
   </si>
   <si>
     <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
   </si>
 </sst>
 </file>
@@ -749,13 +749,13 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>30</v>
@@ -764,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
@@ -7356,22 +7356,22 @@
         <v>242.3</v>
       </c>
       <c r="C262" s="3">
-        <v>944000</v>
+        <v>943703</v>
       </c>
       <c r="D262" s="3">
-        <v>0</v>
+        <v>899997</v>
       </c>
       <c r="E262" s="3">
-        <v>574000</v>
+        <v>574033</v>
       </c>
       <c r="F262" s="3">
-        <v>370000</v>
+        <v>369538</v>
       </c>
       <c r="G262" s="3">
         <v>132</v>
       </c>
       <c r="H262" s="3">
-        <v>38.950000000000003</v>
+        <v>38.94</v>
       </c>
     </row>
   </sheetData>
